--- a/05_PT/単体テスト仕様書_ユーザ管理.xlsx
+++ b/05_PT/単体テスト仕様書_ユーザ管理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12106e115a071dc4/デスクトップ/Git_backUp/1228/push_03/05_PT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74762B-7D2A-4FCC-89C3-1462A0635DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1B74762B-7D2A-4FCC-89C3-1462A0635DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02BF2504-0CDD-4D34-B21C-1CB5085B2867}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="868" activeTab="2" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="868" activeTab="1" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -849,28 +849,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名が空白で送信された場合、”未入力です”が表示される</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名が空白で登録する</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -880,22 +858,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名入力欄下に”未入力です”が表示される</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ニュウリョクランシタ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -904,44 +866,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザIDが空白で送信された場合、”未入力です”が表示される</t>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザIDが空白で登録する</t>
     <rPh sb="6" eb="8">
       <t>クウハク</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID入力欄下に”未入力です”が表示される</t>
-    <rPh sb="5" eb="9">
-      <t>ニュウリョクランシタ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -950,44 +880,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードが空白で送信された場合、”未入力です”が表示される</t>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードが空白で登録する</t>
     <rPh sb="6" eb="8">
       <t>クウハク</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード入力欄下に”未入力です”が表示される</t>
-    <rPh sb="5" eb="9">
-      <t>ニュウリョクランシタ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -996,47 +894,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認用パスワードが空白で送信された場合、”未入力です”が表示される</t>
-    <rPh sb="0" eb="3">
-      <t>カクニンヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認用パスワードが空白で登録する</t>
     <rPh sb="9" eb="11">
       <t>クウハク</t>
     </rPh>
     <rPh sb="12" eb="14">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認用パスワード入力欄下に”未入力です”が表示される</t>
-    <rPh sb="8" eb="12">
-      <t>ニュウリョクランシタ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2517,6 +2380,119 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>ミカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDが空白で送信された場合、”入力されていません”が表示される</t>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID入力欄下に”入力されていません”が表示される</t>
+    <rPh sb="5" eb="9">
+      <t>ニュウリョクランシタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名が空白で送信された場合、”入力されていません”が表示される</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名入力欄下に”入力されていません”が表示される</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ニュウリョクランシタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが空白で送信された場合、”入力されていません”が表示される</t>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力欄下に”入力されていません”が表示される</t>
+    <rPh sb="5" eb="9">
+      <t>ニュウリョクランシタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認用パスワードが空白で送信された場合、”入力されていません”が表示される</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認用パスワード入力欄下に”入力されていません”が表示される</t>
+    <rPh sb="8" eb="12">
+      <t>ニュウリョクランシタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2741,6 +2717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2770,9 +2749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2862,21 +2838,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="570">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="568">
     <dxf>
       <fill>
         <patternFill>
@@ -7217,11 +7179,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F995017-7E8C-43EA-A483-E8106587A314}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:N8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.2109375" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -7249,241 +7211,241 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30" t="s">
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30" t="s">
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30" t="s">
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30" t="s">
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="30" t="s">
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="30" t="s">
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CG2" s="30"/>
-      <c r="CH2" s="30"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="36" t="s">
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="30" t="s">
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="39"/>
+      <c r="CN2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CO2" s="30"/>
-      <c r="CP2" s="30"/>
-      <c r="CQ2" s="30"/>
-      <c r="CR2" s="30"/>
-      <c r="CS2" s="30"/>
-      <c r="CT2" s="30"/>
-      <c r="CU2" s="30"/>
-      <c r="CV2" s="30" t="s">
+      <c r="CO2" s="31"/>
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="31"/>
+      <c r="CU2" s="31"/>
+      <c r="CV2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CW2" s="30"/>
-      <c r="CX2" s="30"/>
-      <c r="CY2" s="30"/>
-      <c r="CZ2" s="30"/>
-      <c r="DA2" s="30"/>
-      <c r="DB2" s="30"/>
-      <c r="DC2" s="30"/>
+      <c r="CW2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
     </row>
-    <row r="3" spans="1:107" ht="54.65" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:107" ht="54.65" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31" t="s">
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31" t="s">
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31" t="s">
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="39"/>
-      <c r="BX3" s="39" t="s">
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="40"/>
+      <c r="BW3" s="40"/>
+      <c r="BX3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="39"/>
-      <c r="CA3" s="39"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="40"/>
       <c r="CB3" s="41">
         <v>44162</v>
       </c>
@@ -7496,28 +7458,28 @@
       <c r="CG3" s="41"/>
       <c r="CH3" s="41"/>
       <c r="CI3" s="41"/>
-      <c r="CJ3" s="39" t="s">
+      <c r="CJ3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="CK3" s="39"/>
-      <c r="CL3" s="39"/>
-      <c r="CM3" s="39"/>
-      <c r="CN3" s="31"/>
-      <c r="CO3" s="31"/>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="31"/>
-      <c r="CR3" s="31"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="31"/>
-      <c r="CV3" s="31"/>
-      <c r="CW3" s="31"/>
-      <c r="CX3" s="31"/>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="31"/>
-      <c r="DA3" s="31"/>
-      <c r="DB3" s="31"/>
-      <c r="DC3" s="31"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40"/>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="32"/>
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="32"/>
+      <c r="DC3" s="32"/>
     </row>
     <row r="4" spans="1:107" ht="108.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
@@ -7568,7 +7530,7 @@
       <c r="AH4" s="19"/>
       <c r="AI4" s="19"/>
       <c r="AJ4" s="19"/>
-      <c r="AK4" s="40" t="s">
+      <c r="AK4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AL4" s="19"/>
@@ -7595,7 +7557,7 @@
       <c r="BG4" s="19"/>
       <c r="BH4" s="19"/>
       <c r="BI4" s="19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="BJ4" s="19"/>
       <c r="BK4" s="19"/>
@@ -7608,7 +7570,7 @@
       <c r="BR4" s="19"/>
       <c r="BS4" s="19"/>
       <c r="BT4" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU4" s="20"/>
       <c r="BV4" s="20"/>
@@ -7632,7 +7594,7 @@
       <c r="CH4" s="22"/>
       <c r="CI4" s="23"/>
       <c r="CJ4" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK4" s="28"/>
       <c r="CL4" s="28"/>
@@ -7693,7 +7655,7 @@
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
       <c r="X5" s="19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
@@ -7707,8 +7669,8 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="40" t="s">
-        <v>174</v>
+      <c r="AK5" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
@@ -7747,7 +7709,7 @@
       <c r="BR5" s="19"/>
       <c r="BS5" s="19"/>
       <c r="BT5" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU5" s="20"/>
       <c r="BV5" s="20"/>
@@ -7771,7 +7733,7 @@
       <c r="CH5" s="22"/>
       <c r="CI5" s="23"/>
       <c r="CJ5" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK5" s="28"/>
       <c r="CL5" s="28"/>
@@ -7832,7 +7794,7 @@
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
@@ -7846,8 +7808,8 @@
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="40" t="s">
-        <v>186</v>
+      <c r="AK6" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
@@ -7886,7 +7848,7 @@
       <c r="BR6" s="19"/>
       <c r="BS6" s="19"/>
       <c r="BT6" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU6" s="20"/>
       <c r="BV6" s="20"/>
@@ -7910,7 +7872,7 @@
       <c r="CH6" s="22"/>
       <c r="CI6" s="23"/>
       <c r="CJ6" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK6" s="28"/>
       <c r="CL6" s="28"/>
@@ -7971,7 +7933,7 @@
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
       <c r="X7" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
@@ -7985,8 +7947,8 @@
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="40" t="s">
-        <v>187</v>
+      <c r="AK7" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
@@ -8025,7 +7987,7 @@
       <c r="BR7" s="19"/>
       <c r="BS7" s="19"/>
       <c r="BT7" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU7" s="20"/>
       <c r="BV7" s="20"/>
@@ -8049,7 +8011,7 @@
       <c r="CH7" s="22"/>
       <c r="CI7" s="23"/>
       <c r="CJ7" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK7" s="28"/>
       <c r="CL7" s="28"/>
@@ -8110,7 +8072,7 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -8125,7 +8087,7 @@
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
       <c r="AK8" s="19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AL8" s="19"/>
       <c r="AM8" s="19"/>
@@ -8164,7 +8126,7 @@
       <c r="BR8" s="19"/>
       <c r="BS8" s="19"/>
       <c r="BT8" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU8" s="20"/>
       <c r="BV8" s="20"/>
@@ -8188,7 +8150,7 @@
       <c r="CH8" s="22"/>
       <c r="CI8" s="23"/>
       <c r="CJ8" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK8" s="28"/>
       <c r="CL8" s="28"/>
@@ -8214,7 +8176,7 @@
       <c r="DB8" s="19"/>
       <c r="DC8" s="19"/>
     </row>
-    <row r="9" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8249,7 +8211,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
@@ -8264,7 +8226,7 @@
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
@@ -8290,7 +8252,7 @@
       <c r="BG9" s="19"/>
       <c r="BH9" s="19"/>
       <c r="BI9" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="BJ9" s="19"/>
       <c r="BK9" s="19"/>
@@ -8303,7 +8265,7 @@
       <c r="BR9" s="19"/>
       <c r="BS9" s="19"/>
       <c r="BT9" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU9" s="20"/>
       <c r="BV9" s="20"/>
@@ -8327,7 +8289,7 @@
       <c r="CH9" s="22"/>
       <c r="CI9" s="23"/>
       <c r="CJ9" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK9" s="20"/>
       <c r="CL9" s="20"/>
@@ -8345,7 +8307,7 @@
       <c r="CT9" s="19"/>
       <c r="CU9" s="19"/>
       <c r="CV9" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="CW9" s="19"/>
       <c r="CX9" s="19"/>
@@ -8355,7 +8317,7 @@
       <c r="DB9" s="19"/>
       <c r="DC9" s="19"/>
     </row>
-    <row r="10" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="9">
         <f>ROW(A10)-3</f>
         <v>7</v>
@@ -8390,7 +8352,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
@@ -8405,7 +8367,7 @@
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19"/>
@@ -8444,7 +8406,7 @@
       <c r="BR10" s="19"/>
       <c r="BS10" s="19"/>
       <c r="BT10" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU10" s="20"/>
       <c r="BV10" s="20"/>
@@ -8468,7 +8430,7 @@
       <c r="CH10" s="22"/>
       <c r="CI10" s="23"/>
       <c r="CJ10" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK10" s="20"/>
       <c r="CL10" s="20"/>
@@ -8494,7 +8456,7 @@
       <c r="DB10" s="19"/>
       <c r="DC10" s="19"/>
     </row>
-    <row r="11" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="9">
         <f>ROW(A11)-3</f>
         <v>8</v>
@@ -8529,7 +8491,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -8544,7 +8506,7 @@
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
@@ -8583,7 +8545,7 @@
       <c r="BR11" s="19"/>
       <c r="BS11" s="19"/>
       <c r="BT11" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU11" s="20"/>
       <c r="BV11" s="20"/>
@@ -8607,7 +8569,7 @@
       <c r="CH11" s="22"/>
       <c r="CI11" s="23"/>
       <c r="CJ11" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK11" s="20"/>
       <c r="CL11" s="20"/>
@@ -8633,7 +8595,7 @@
       <c r="DB11" s="19"/>
       <c r="DC11" s="19"/>
     </row>
-    <row r="12" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="9">
         <f>ROW(A12)-3</f>
         <v>9</v>
@@ -8668,7 +8630,7 @@
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
@@ -8683,7 +8645,7 @@
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
@@ -8722,7 +8684,7 @@
       <c r="BR12" s="19"/>
       <c r="BS12" s="19"/>
       <c r="BT12" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU12" s="20"/>
       <c r="BV12" s="20"/>
@@ -8746,7 +8708,7 @@
       <c r="CH12" s="22"/>
       <c r="CI12" s="23"/>
       <c r="CJ12" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK12" s="20"/>
       <c r="CL12" s="20"/>
@@ -8772,7 +8734,7 @@
       <c r="DB12" s="19"/>
       <c r="DC12" s="19"/>
     </row>
-    <row r="13" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="9">
         <f>ROW(A13)-3</f>
         <v>10</v>
@@ -8807,7 +8769,7 @@
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
@@ -8822,7 +8784,7 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
@@ -8861,7 +8823,7 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="19"/>
       <c r="BT13" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
@@ -8885,7 +8847,7 @@
       <c r="CH13" s="22"/>
       <c r="CI13" s="23"/>
       <c r="CJ13" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK13" s="20"/>
       <c r="CL13" s="20"/>
@@ -8911,7 +8873,7 @@
       <c r="DB13" s="19"/>
       <c r="DC13" s="19"/>
     </row>
-    <row r="14" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9000,7 +8962,7 @@
       <c r="BR14" s="19"/>
       <c r="BS14" s="19"/>
       <c r="BT14" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU14" s="20"/>
       <c r="BV14" s="20"/>
@@ -9046,7 +9008,7 @@
       <c r="DB14" s="19"/>
       <c r="DC14" s="19"/>
     </row>
-    <row r="15" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9135,7 +9097,7 @@
       <c r="BR15" s="19"/>
       <c r="BS15" s="19"/>
       <c r="BT15" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU15" s="20"/>
       <c r="BV15" s="20"/>
@@ -9181,7 +9143,7 @@
       <c r="DB15" s="19"/>
       <c r="DC15" s="19"/>
     </row>
-    <row r="16" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9216,7 +9178,7 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
@@ -9231,7 +9193,7 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19"/>
@@ -9257,7 +9219,7 @@
       <c r="BG16" s="19"/>
       <c r="BH16" s="19"/>
       <c r="BI16" s="19" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="BJ16" s="19"/>
       <c r="BK16" s="19"/>
@@ -9270,7 +9232,7 @@
       <c r="BR16" s="19"/>
       <c r="BS16" s="19"/>
       <c r="BT16" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU16" s="20"/>
       <c r="BV16" s="20"/>
@@ -9316,7 +9278,7 @@
       <c r="DB16" s="19"/>
       <c r="DC16" s="19"/>
     </row>
-    <row r="17" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9340,7 +9302,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -9351,7 +9313,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
@@ -9366,7 +9328,7 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
@@ -9392,7 +9354,7 @@
       <c r="BG17" s="19"/>
       <c r="BH17" s="19"/>
       <c r="BI17" s="19" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="BJ17" s="19"/>
       <c r="BK17" s="19"/>
@@ -9405,7 +9367,7 @@
       <c r="BR17" s="19"/>
       <c r="BS17" s="19"/>
       <c r="BT17" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU17" s="20"/>
       <c r="BV17" s="20"/>
@@ -9451,7 +9413,7 @@
       <c r="DB17" s="16"/>
       <c r="DC17" s="17"/>
     </row>
-    <row r="18" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9475,7 +9437,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -9486,7 +9448,7 @@
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
@@ -9501,7 +9463,7 @@
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AL18" s="19"/>
       <c r="AM18" s="19"/>
@@ -9527,7 +9489,7 @@
       <c r="BG18" s="19"/>
       <c r="BH18" s="19"/>
       <c r="BI18" s="19" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="BJ18" s="19"/>
       <c r="BK18" s="19"/>
@@ -9540,7 +9502,7 @@
       <c r="BR18" s="19"/>
       <c r="BS18" s="19"/>
       <c r="BT18" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU18" s="20"/>
       <c r="BV18" s="20"/>
@@ -9586,7 +9548,7 @@
       <c r="DB18" s="16"/>
       <c r="DC18" s="17"/>
     </row>
-    <row r="19" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9610,7 +9572,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -9621,7 +9583,7 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
@@ -9636,7 +9598,7 @@
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19"/>
@@ -9662,7 +9624,7 @@
       <c r="BG19" s="19"/>
       <c r="BH19" s="19"/>
       <c r="BI19" s="19" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="BJ19" s="19"/>
       <c r="BK19" s="19"/>
@@ -9675,7 +9637,7 @@
       <c r="BR19" s="19"/>
       <c r="BS19" s="19"/>
       <c r="BT19" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
@@ -9721,7 +9683,7 @@
       <c r="DB19" s="16"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9756,7 +9718,7 @@
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
@@ -9771,7 +9733,7 @@
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
       <c r="AK20" s="19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AL20" s="19"/>
       <c r="AM20" s="19"/>
@@ -9797,7 +9759,7 @@
       <c r="BG20" s="19"/>
       <c r="BH20" s="19"/>
       <c r="BI20" s="19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BJ20" s="19"/>
       <c r="BK20" s="19"/>
@@ -9810,7 +9772,7 @@
       <c r="BR20" s="19"/>
       <c r="BS20" s="19"/>
       <c r="BT20" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU20" s="20"/>
       <c r="BV20" s="20"/>
@@ -9856,7 +9818,7 @@
       <c r="DB20" s="19"/>
       <c r="DC20" s="19"/>
     </row>
-    <row r="21" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9880,7 +9842,7 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -9891,7 +9853,7 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
@@ -9906,7 +9868,7 @@
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
       <c r="AK21" s="19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19"/>
@@ -9932,7 +9894,7 @@
       <c r="BG21" s="19"/>
       <c r="BH21" s="19"/>
       <c r="BI21" s="19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="BJ21" s="19"/>
       <c r="BK21" s="19"/>
@@ -9945,7 +9907,7 @@
       <c r="BR21" s="19"/>
       <c r="BS21" s="19"/>
       <c r="BT21" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU21" s="20"/>
       <c r="BV21" s="20"/>
@@ -9991,7 +9953,7 @@
       <c r="DB21" s="16"/>
       <c r="DC21" s="17"/>
     </row>
-    <row r="22" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10015,7 +9977,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -10026,7 +9988,7 @@
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
       <c r="X22" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
@@ -10041,7 +10003,7 @@
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AL22" s="19"/>
       <c r="AM22" s="19"/>
@@ -10067,7 +10029,7 @@
       <c r="BG22" s="19"/>
       <c r="BH22" s="19"/>
       <c r="BI22" s="19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BJ22" s="19"/>
       <c r="BK22" s="19"/>
@@ -10080,7 +10042,7 @@
       <c r="BR22" s="19"/>
       <c r="BS22" s="19"/>
       <c r="BT22" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU22" s="20"/>
       <c r="BV22" s="20"/>
@@ -10126,7 +10088,7 @@
       <c r="DB22" s="16"/>
       <c r="DC22" s="17"/>
     </row>
-    <row r="23" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10150,7 +10112,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -10161,7 +10123,7 @@
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
       <c r="X23" s="19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
@@ -10176,7 +10138,7 @@
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AL23" s="19"/>
       <c r="AM23" s="19"/>
@@ -10202,7 +10164,7 @@
       <c r="BG23" s="19"/>
       <c r="BH23" s="19"/>
       <c r="BI23" s="19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="BJ23" s="19"/>
       <c r="BK23" s="19"/>
@@ -10215,7 +10177,7 @@
       <c r="BR23" s="19"/>
       <c r="BS23" s="19"/>
       <c r="BT23" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU23" s="20"/>
       <c r="BV23" s="20"/>
@@ -10261,7 +10223,7 @@
       <c r="DB23" s="16"/>
       <c r="DC23" s="17"/>
     </row>
-    <row r="24" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10285,7 +10247,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -10296,7 +10258,7 @@
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
@@ -10311,7 +10273,7 @@
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
       <c r="AK24" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AL24" s="19"/>
       <c r="AM24" s="19"/>
@@ -10337,7 +10299,7 @@
       <c r="BG24" s="19"/>
       <c r="BH24" s="19"/>
       <c r="BI24" s="19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="BJ24" s="19"/>
       <c r="BK24" s="19"/>
@@ -10350,7 +10312,7 @@
       <c r="BR24" s="19"/>
       <c r="BS24" s="19"/>
       <c r="BT24" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU24" s="20"/>
       <c r="BV24" s="20"/>
@@ -10396,7 +10358,7 @@
       <c r="DB24" s="16"/>
       <c r="DC24" s="17"/>
     </row>
-    <row r="25" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10420,7 +10382,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -10431,7 +10393,7 @@
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
@@ -10446,7 +10408,7 @@
       <c r="AI25" s="19"/>
       <c r="AJ25" s="19"/>
       <c r="AK25" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AL25" s="19"/>
       <c r="AM25" s="19"/>
@@ -10472,7 +10434,7 @@
       <c r="BG25" s="19"/>
       <c r="BH25" s="19"/>
       <c r="BI25" s="19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BJ25" s="19"/>
       <c r="BK25" s="19"/>
@@ -10485,7 +10447,7 @@
       <c r="BR25" s="19"/>
       <c r="BS25" s="19"/>
       <c r="BT25" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU25" s="20"/>
       <c r="BV25" s="20"/>
@@ -10531,7 +10493,7 @@
       <c r="DB25" s="16"/>
       <c r="DC25" s="17"/>
     </row>
-    <row r="26" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10555,7 +10517,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -10566,7 +10528,7 @@
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
       <c r="X26" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
@@ -10581,7 +10543,7 @@
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AL26" s="19"/>
       <c r="AM26" s="19"/>
@@ -10607,7 +10569,7 @@
       <c r="BG26" s="19"/>
       <c r="BH26" s="19"/>
       <c r="BI26" s="19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="BJ26" s="19"/>
       <c r="BK26" s="19"/>
@@ -10620,7 +10582,7 @@
       <c r="BR26" s="19"/>
       <c r="BS26" s="19"/>
       <c r="BT26" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU26" s="20"/>
       <c r="BV26" s="20"/>
@@ -10799,54 +10761,54 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="35"/>
-      <c r="AX28" s="35"/>
-      <c r="AY28" s="35"/>
-      <c r="AZ28" s="35"/>
-      <c r="BA28" s="35"/>
-      <c r="BB28" s="35"/>
-      <c r="BC28" s="35"/>
-      <c r="BD28" s="35"/>
-      <c r="BE28" s="35"/>
-      <c r="BF28" s="35"/>
-      <c r="BG28" s="35"/>
-      <c r="BH28" s="35"/>
-      <c r="BI28" s="35"/>
-      <c r="BJ28" s="35"/>
-      <c r="BK28" s="35"/>
-      <c r="BL28" s="35"/>
-      <c r="BM28" s="35"/>
-      <c r="BN28" s="35"/>
-      <c r="BO28" s="35"/>
-      <c r="BP28" s="35"/>
-      <c r="BQ28" s="35"/>
-      <c r="BR28" s="35"/>
-      <c r="BS28" s="35"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="36"/>
+      <c r="BS28" s="36"/>
       <c r="BT28" s="20"/>
       <c r="BU28" s="20"/>
       <c r="BV28" s="20"/>
@@ -10908,54 +10870,54 @@
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="17"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="35"/>
-      <c r="AX29" s="35"/>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="35"/>
-      <c r="BA29" s="35"/>
-      <c r="BB29" s="35"/>
-      <c r="BC29" s="35"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="35"/>
-      <c r="BF29" s="35"/>
-      <c r="BG29" s="35"/>
-      <c r="BH29" s="35"/>
-      <c r="BI29" s="35"/>
-      <c r="BJ29" s="35"/>
-      <c r="BK29" s="35"/>
-      <c r="BL29" s="35"/>
-      <c r="BM29" s="35"/>
-      <c r="BN29" s="35"/>
-      <c r="BO29" s="35"/>
-      <c r="BP29" s="35"/>
-      <c r="BQ29" s="35"/>
-      <c r="BR29" s="35"/>
-      <c r="BS29" s="35"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="36"/>
+      <c r="BL29" s="36"/>
+      <c r="BM29" s="36"/>
+      <c r="BN29" s="36"/>
+      <c r="BO29" s="36"/>
+      <c r="BP29" s="36"/>
+      <c r="BQ29" s="36"/>
+      <c r="BR29" s="36"/>
+      <c r="BS29" s="36"/>
       <c r="BT29" s="20"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="20"/>
@@ -10976,22 +10938,22 @@
       <c r="CK29" s="20"/>
       <c r="CL29" s="20"/>
       <c r="CM29" s="20"/>
-      <c r="CN29" s="35"/>
-      <c r="CO29" s="35"/>
-      <c r="CP29" s="35"/>
-      <c r="CQ29" s="35"/>
-      <c r="CR29" s="35"/>
-      <c r="CS29" s="35"/>
-      <c r="CT29" s="35"/>
-      <c r="CU29" s="35"/>
-      <c r="CV29" s="35"/>
-      <c r="CW29" s="35"/>
-      <c r="CX29" s="35"/>
-      <c r="CY29" s="35"/>
-      <c r="CZ29" s="35"/>
-      <c r="DA29" s="35"/>
-      <c r="DB29" s="35"/>
-      <c r="DC29" s="35"/>
+      <c r="CN29" s="36"/>
+      <c r="CO29" s="36"/>
+      <c r="CP29" s="36"/>
+      <c r="CQ29" s="36"/>
+      <c r="CR29" s="36"/>
+      <c r="CS29" s="36"/>
+      <c r="CT29" s="36"/>
+      <c r="CU29" s="36"/>
+      <c r="CV29" s="36"/>
+      <c r="CW29" s="36"/>
+      <c r="CX29" s="36"/>
+      <c r="CY29" s="36"/>
+      <c r="CZ29" s="36"/>
+      <c r="DA29" s="36"/>
+      <c r="DB29" s="36"/>
+      <c r="DC29" s="36"/>
     </row>
     <row r="30" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="3"/>
@@ -11213,10 +11175,10 @@
     </row>
     <row r="32" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="5"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -11322,10 +11284,10 @@
     </row>
     <row r="33" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A33" s="5"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -11431,10 +11393,10 @@
     </row>
     <row r="34" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A34" s="5"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
@@ -11540,10 +11502,10 @@
     </row>
     <row r="35" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A35" s="5"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -11649,10 +11611,10 @@
     </row>
     <row r="36" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A36" s="5"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
@@ -11758,10 +11720,10 @@
     </row>
     <row r="37" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A37" s="5"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
@@ -11867,10 +11829,10 @@
     </row>
     <row r="38" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A38" s="5"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -11976,10 +11938,10 @@
     </row>
     <row r="39" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A39" s="5"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
@@ -12085,10 +12047,10 @@
     </row>
     <row r="40" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A40" s="5"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
@@ -12194,10 +12156,10 @@
     </row>
     <row r="41" spans="1:107" ht="117.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A41" s="5"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="BT41" s="20"/>
       <c r="BU41" s="20"/>
       <c r="BV41" s="20"/>
@@ -12240,11 +12202,7 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="5" showButton="0">
-      <filters>
-        <filter val="UserController.java"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
@@ -12892,1062 +12850,1062 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AG3:BS4 A3:N4 A32:E41 AT9:BS9 AG16:BH16 CV3:DC4 X3:AC4 BX32:DC41 X14:AC14 AT8:BH8 AT14:BS14 CB14:CM14 A14:A16 A8:E9 CV6:DC9 A27:A29 CB27:DC30 CV14:DC17 CF15:CM17 CJ9:CM9 BX3:CM4">
-    <cfRule type="expression" dxfId="569" priority="346">
+    <cfRule type="expression" dxfId="567" priority="346">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AF4">
-    <cfRule type="expression" dxfId="568" priority="343">
+    <cfRule type="expression" dxfId="566" priority="343">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:W4">
-    <cfRule type="expression" dxfId="567" priority="342">
+    <cfRule type="expression" dxfId="565" priority="342">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN3:CU4">
-    <cfRule type="expression" dxfId="566" priority="341">
+    <cfRule type="expression" dxfId="564" priority="341">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:E31">
-    <cfRule type="expression" dxfId="565" priority="246">
+    <cfRule type="expression" dxfId="563" priority="246">
       <formula>$CJ31="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="564" priority="245">
+    <cfRule type="expression" dxfId="562" priority="245">
       <formula>$CJ31="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI16:BS16">
-    <cfRule type="expression" dxfId="563" priority="330">
+    <cfRule type="expression" dxfId="561" priority="330">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB31:DC31">
-    <cfRule type="expression" dxfId="562" priority="249">
+    <cfRule type="expression" dxfId="560" priority="249">
       <formula>$CJ31="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AJ14">
-    <cfRule type="expression" dxfId="561" priority="336">
+    <cfRule type="expression" dxfId="559" priority="336">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AF14">
-    <cfRule type="expression" dxfId="560" priority="335">
+    <cfRule type="expression" dxfId="558" priority="335">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AS9 AK14:AS14">
-    <cfRule type="expression" dxfId="559" priority="334">
+    <cfRule type="expression" dxfId="557" priority="334">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6:CA6">
-    <cfRule type="expression" dxfId="558" priority="268">
+    <cfRule type="expression" dxfId="556" priority="268">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:AC16">
-    <cfRule type="expression" dxfId="557" priority="332">
+    <cfRule type="expression" dxfId="555" priority="332">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16:AF16">
-    <cfRule type="expression" dxfId="556" priority="331">
+    <cfRule type="expression" dxfId="554" priority="331">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:N9">
-    <cfRule type="expression" dxfId="555" priority="300">
+    <cfRule type="expression" dxfId="553" priority="300">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT28:BW29">
-    <cfRule type="expression" dxfId="554" priority="253">
+    <cfRule type="expression" dxfId="552" priority="253">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:W16">
-    <cfRule type="expression" dxfId="553" priority="293">
+    <cfRule type="expression" dxfId="551" priority="293">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG27:AJ27 F32:BS40 X28:BS29">
-    <cfRule type="expression" dxfId="552" priority="320">
+    <cfRule type="expression" dxfId="550" priority="320">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD27:AF27">
-    <cfRule type="expression" dxfId="551" priority="305">
+    <cfRule type="expression" dxfId="549" priority="305">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:BH27">
-    <cfRule type="expression" dxfId="550" priority="314">
+    <cfRule type="expression" dxfId="548" priority="314">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI27:BS27">
-    <cfRule type="expression" dxfId="549" priority="312">
+    <cfRule type="expression" dxfId="547" priority="312">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX28:CA29">
-    <cfRule type="expression" dxfId="548" priority="275">
+    <cfRule type="expression" dxfId="546" priority="275">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:AC27">
-    <cfRule type="expression" dxfId="547" priority="306">
+    <cfRule type="expression" dxfId="545" priority="306">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK27:AS27">
-    <cfRule type="expression" dxfId="546" priority="303">
+    <cfRule type="expression" dxfId="544" priority="303">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="545" priority="267">
+    <cfRule type="expression" dxfId="543" priority="267">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:W9">
-    <cfRule type="expression" dxfId="544" priority="299">
+    <cfRule type="expression" dxfId="542" priority="299">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="543" priority="298">
+    <cfRule type="expression" dxfId="541" priority="298">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:W14">
-    <cfRule type="expression" dxfId="542" priority="297">
+    <cfRule type="expression" dxfId="540" priority="297">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:E6">
-    <cfRule type="expression" dxfId="541" priority="260">
+    <cfRule type="expression" dxfId="539" priority="260">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
-    <cfRule type="expression" dxfId="540" priority="259">
+    <cfRule type="expression" dxfId="538" priority="259">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT14:BW14 BT27:BW27">
-    <cfRule type="expression" dxfId="539" priority="254">
+    <cfRule type="expression" dxfId="537" priority="254">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT32:BW41 BT3:BW4">
-    <cfRule type="expression" dxfId="538" priority="255">
+    <cfRule type="expression" dxfId="536" priority="255">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:W6">
-    <cfRule type="expression" dxfId="537" priority="270">
+    <cfRule type="expression" dxfId="535" priority="270">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:N27">
-    <cfRule type="expression" dxfId="536" priority="282">
+    <cfRule type="expression" dxfId="534" priority="282">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:W27">
-    <cfRule type="expression" dxfId="535" priority="281">
+    <cfRule type="expression" dxfId="533" priority="281">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="534" priority="261">
+    <cfRule type="expression" dxfId="532" priority="261">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:N28">
-    <cfRule type="expression" dxfId="533" priority="279">
+    <cfRule type="expression" dxfId="531" priority="279">
       <formula>$CJ29="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:W28">
-    <cfRule type="expression" dxfId="532" priority="278">
+    <cfRule type="expression" dxfId="530" priority="278">
       <formula>$CJ29="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:N29">
-    <cfRule type="expression" dxfId="531" priority="277">
+    <cfRule type="expression" dxfId="529" priority="277">
       <formula>$CJ30="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:BS30">
-    <cfRule type="expression" dxfId="530" priority="273">
+    <cfRule type="expression" dxfId="528" priority="273">
       <formula>$CJ32="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:W29">
-    <cfRule type="expression" dxfId="529" priority="276">
+    <cfRule type="expression" dxfId="527" priority="276">
       <formula>$CJ30="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:N30">
-    <cfRule type="expression" dxfId="528" priority="274">
+    <cfRule type="expression" dxfId="526" priority="274">
       <formula>$CJ32="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:BS6">
-    <cfRule type="expression" dxfId="527" priority="272">
+    <cfRule type="expression" dxfId="525" priority="272">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:BS5">
-    <cfRule type="expression" dxfId="526" priority="241">
+    <cfRule type="expression" dxfId="524" priority="241">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AS8">
-    <cfRule type="expression" dxfId="525" priority="217">
+    <cfRule type="expression" dxfId="523" priority="217">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT7:BH7">
-    <cfRule type="expression" dxfId="524" priority="266">
+    <cfRule type="expression" dxfId="522" priority="266">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E16 B27:E30">
-    <cfRule type="expression" dxfId="523" priority="258">
+    <cfRule type="expression" dxfId="521" priority="258">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="522" priority="257">
+    <cfRule type="expression" dxfId="520" priority="257">
       <formula>$CJ30="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:CA5">
-    <cfRule type="expression" dxfId="521" priority="237">
+    <cfRule type="expression" dxfId="519" priority="237">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:CA7">
-    <cfRule type="expression" dxfId="520" priority="262">
+    <cfRule type="expression" dxfId="518" priority="262">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:W5">
-    <cfRule type="expression" dxfId="519" priority="239">
+    <cfRule type="expression" dxfId="517" priority="239">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BS8">
-    <cfRule type="expression" dxfId="518" priority="216">
+    <cfRule type="expression" dxfId="516" priority="216">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="517" priority="236">
+    <cfRule type="expression" dxfId="515" priority="236">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX30:CA30">
-    <cfRule type="expression" dxfId="516" priority="256">
+    <cfRule type="expression" dxfId="514" priority="256">
       <formula>$CJ30="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="expression" dxfId="515" priority="235">
+    <cfRule type="expression" dxfId="513" priority="235">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT30:BW30">
-    <cfRule type="expression" dxfId="514" priority="250">
+    <cfRule type="expression" dxfId="512" priority="250">
       <formula>$CJ30="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:BS31">
-    <cfRule type="expression" dxfId="513" priority="247">
+    <cfRule type="expression" dxfId="511" priority="247">
       <formula>$CJ33="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:N31">
-    <cfRule type="expression" dxfId="512" priority="248">
+    <cfRule type="expression" dxfId="510" priority="248">
       <formula>$CJ33="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX31:CA31">
-    <cfRule type="expression" dxfId="511" priority="244">
+    <cfRule type="expression" dxfId="509" priority="244">
       <formula>$CJ31="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT31:BW31">
-    <cfRule type="expression" dxfId="510" priority="243">
+    <cfRule type="expression" dxfId="508" priority="243">
       <formula>$CJ31="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:DC5">
-    <cfRule type="expression" dxfId="509" priority="242">
+    <cfRule type="expression" dxfId="507" priority="242">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AF5">
-    <cfRule type="expression" dxfId="508" priority="231">
+    <cfRule type="expression" dxfId="506" priority="231">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AJ9 X9:AC9">
-    <cfRule type="expression" dxfId="507" priority="208">
+    <cfRule type="expression" dxfId="505" priority="208">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AS6">
-    <cfRule type="expression" dxfId="506" priority="228">
+    <cfRule type="expression" dxfId="504" priority="228">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:W8">
-    <cfRule type="expression" dxfId="505" priority="220">
+    <cfRule type="expression" dxfId="503" priority="220">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AJ5 X5:AC5">
-    <cfRule type="expression" dxfId="504" priority="232">
+    <cfRule type="expression" dxfId="502" priority="232">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BS7">
-    <cfRule type="expression" dxfId="503" priority="222">
+    <cfRule type="expression" dxfId="501" priority="222">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AJ6 X6:AC6">
-    <cfRule type="expression" dxfId="502" priority="230">
+    <cfRule type="expression" dxfId="500" priority="230">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AF6">
-    <cfRule type="expression" dxfId="501" priority="229">
+    <cfRule type="expression" dxfId="499" priority="229">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AJ8 X8:AC8">
-    <cfRule type="expression" dxfId="500" priority="219">
+    <cfRule type="expression" dxfId="498" priority="219">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AF8">
-    <cfRule type="expression" dxfId="499" priority="218">
+    <cfRule type="expression" dxfId="497" priority="218">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:W7">
-    <cfRule type="expression" dxfId="498" priority="226">
+    <cfRule type="expression" dxfId="496" priority="226">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AJ7 X7:AC7">
-    <cfRule type="expression" dxfId="497" priority="225">
+    <cfRule type="expression" dxfId="495" priority="225">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AF7">
-    <cfRule type="expression" dxfId="496" priority="224">
+    <cfRule type="expression" dxfId="494" priority="224">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7:AS7">
-    <cfRule type="expression" dxfId="495" priority="223">
+    <cfRule type="expression" dxfId="493" priority="223">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AF9">
-    <cfRule type="expression" dxfId="494" priority="207">
+    <cfRule type="expression" dxfId="492" priority="207">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT11:BS11 A11 CV11:DC11">
-    <cfRule type="expression" dxfId="493" priority="190">
+    <cfRule type="expression" dxfId="491" priority="190">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:N10">
-    <cfRule type="expression" dxfId="492" priority="198">
+    <cfRule type="expression" dxfId="490" priority="198">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E11">
-    <cfRule type="expression" dxfId="491" priority="186">
+    <cfRule type="expression" dxfId="489" priority="186">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:BS15 X15:AC15">
-    <cfRule type="expression" dxfId="490" priority="206">
+    <cfRule type="expression" dxfId="488" priority="206">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15:AJ15">
-    <cfRule type="expression" dxfId="489" priority="205">
+    <cfRule type="expression" dxfId="487" priority="205">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15:AF15">
-    <cfRule type="expression" dxfId="488" priority="204">
+    <cfRule type="expression" dxfId="486" priority="204">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15:AS15">
-    <cfRule type="expression" dxfId="487" priority="203">
+    <cfRule type="expression" dxfId="485" priority="203">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:N15">
-    <cfRule type="expression" dxfId="486" priority="202">
+    <cfRule type="expression" dxfId="484" priority="202">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:W15">
-    <cfRule type="expression" dxfId="485" priority="201">
+    <cfRule type="expression" dxfId="483" priority="201">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT10:BS10 A10 CJ10:CM10 CV10:DC10">
-    <cfRule type="expression" dxfId="484" priority="200">
+    <cfRule type="expression" dxfId="482" priority="200">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:N11">
-    <cfRule type="expression" dxfId="483" priority="189">
+    <cfRule type="expression" dxfId="481" priority="189">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13">
-    <cfRule type="expression" dxfId="482" priority="157">
+    <cfRule type="expression" dxfId="480" priority="157">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:W10">
-    <cfRule type="expression" dxfId="481" priority="197">
+    <cfRule type="expression" dxfId="479" priority="197">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:E10">
-    <cfRule type="expression" dxfId="480" priority="195">
+    <cfRule type="expression" dxfId="478" priority="195">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:W11">
-    <cfRule type="expression" dxfId="479" priority="188">
+    <cfRule type="expression" dxfId="477" priority="188">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AJ10 X10:AC10">
-    <cfRule type="expression" dxfId="478" priority="193">
+    <cfRule type="expression" dxfId="476" priority="193">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10:AF10">
-    <cfRule type="expression" dxfId="477" priority="192">
+    <cfRule type="expression" dxfId="475" priority="192">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10:AS10">
-    <cfRule type="expression" dxfId="476" priority="191">
+    <cfRule type="expression" dxfId="474" priority="191">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT12:BS12 A12 CV12:DC12">
-    <cfRule type="expression" dxfId="475" priority="170">
+    <cfRule type="expression" dxfId="473" priority="170">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:N13">
-    <cfRule type="expression" dxfId="474" priority="160">
+    <cfRule type="expression" dxfId="472" priority="160">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:W13">
-    <cfRule type="expression" dxfId="473" priority="159">
+    <cfRule type="expression" dxfId="471" priority="159">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:N17">
-    <cfRule type="expression" dxfId="472" priority="143">
+    <cfRule type="expression" dxfId="470" priority="143">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:N16">
-    <cfRule type="expression" dxfId="471" priority="150">
+    <cfRule type="expression" dxfId="469" priority="150">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG17:BH17 A17">
-    <cfRule type="expression" dxfId="470" priority="149">
+    <cfRule type="expression" dxfId="468" priority="149">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E17">
-    <cfRule type="expression" dxfId="469" priority="144">
+    <cfRule type="expression" dxfId="467" priority="144">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:N12">
-    <cfRule type="expression" dxfId="468" priority="169">
+    <cfRule type="expression" dxfId="466" priority="169">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:W12">
-    <cfRule type="expression" dxfId="467" priority="168">
+    <cfRule type="expression" dxfId="465" priority="168">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E12">
-    <cfRule type="expression" dxfId="466" priority="166">
+    <cfRule type="expression" dxfId="464" priority="166">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:BS13 A13 CV13:DC13">
-    <cfRule type="expression" dxfId="465" priority="161">
+    <cfRule type="expression" dxfId="463" priority="161">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:N19">
-    <cfRule type="expression" dxfId="464" priority="113">
+    <cfRule type="expression" dxfId="462" priority="113">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AS23">
-    <cfRule type="expression" dxfId="463" priority="70">
+    <cfRule type="expression" dxfId="461" priority="70">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:AC17">
-    <cfRule type="expression" dxfId="462" priority="148">
+    <cfRule type="expression" dxfId="460" priority="148">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI17:BS17">
-    <cfRule type="expression" dxfId="461" priority="146">
+    <cfRule type="expression" dxfId="459" priority="146">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AF17">
-    <cfRule type="expression" dxfId="460" priority="147">
+    <cfRule type="expression" dxfId="458" priority="147">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:W17">
-    <cfRule type="expression" dxfId="459" priority="145">
+    <cfRule type="expression" dxfId="457" priority="145">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:W21">
-    <cfRule type="expression" dxfId="458" priority="99">
+    <cfRule type="expression" dxfId="456" priority="99">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:N21">
-    <cfRule type="expression" dxfId="457" priority="97">
+    <cfRule type="expression" dxfId="455" priority="97">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:E21">
-    <cfRule type="expression" dxfId="456" priority="98">
+    <cfRule type="expression" dxfId="454" priority="98">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF22:CM22 CV22:DC22">
-    <cfRule type="expression" dxfId="455" priority="96">
+    <cfRule type="expression" dxfId="453" priority="96">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22:BH22 A22">
-    <cfRule type="expression" dxfId="454" priority="93">
+    <cfRule type="expression" dxfId="452" priority="93">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="expression" dxfId="453" priority="88">
+    <cfRule type="expression" dxfId="451" priority="88">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:W22">
-    <cfRule type="expression" dxfId="452" priority="89">
+    <cfRule type="expression" dxfId="450" priority="89">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BS22">
-    <cfRule type="expression" dxfId="451" priority="90">
+    <cfRule type="expression" dxfId="449" priority="90">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF18:CM18 CV18:DC18">
-    <cfRule type="expression" dxfId="450" priority="132">
+    <cfRule type="expression" dxfId="448" priority="132">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:W18">
-    <cfRule type="expression" dxfId="449" priority="125">
+    <cfRule type="expression" dxfId="447" priority="125">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E18">
-    <cfRule type="expression" dxfId="448" priority="124">
+    <cfRule type="expression" dxfId="446" priority="124">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:BH18 A18">
-    <cfRule type="expression" dxfId="447" priority="129">
+    <cfRule type="expression" dxfId="445" priority="129">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI18:BS18">
-    <cfRule type="expression" dxfId="446" priority="126">
+    <cfRule type="expression" dxfId="444" priority="126">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:AC18">
-    <cfRule type="expression" dxfId="445" priority="128">
+    <cfRule type="expression" dxfId="443" priority="128">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD18:AF18">
-    <cfRule type="expression" dxfId="444" priority="127">
+    <cfRule type="expression" dxfId="442" priority="127">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:N18">
-    <cfRule type="expression" dxfId="443" priority="123">
+    <cfRule type="expression" dxfId="441" priority="123">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF19:CM19 CV19:DC19">
-    <cfRule type="expression" dxfId="442" priority="122">
+    <cfRule type="expression" dxfId="440" priority="122">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:W19">
-    <cfRule type="expression" dxfId="441" priority="115">
+    <cfRule type="expression" dxfId="439" priority="115">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19">
-    <cfRule type="expression" dxfId="440" priority="114">
+    <cfRule type="expression" dxfId="438" priority="114">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19:BH19 A19">
-    <cfRule type="expression" dxfId="439" priority="119">
+    <cfRule type="expression" dxfId="437" priority="119">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI19:BS19">
-    <cfRule type="expression" dxfId="438" priority="116">
+    <cfRule type="expression" dxfId="436" priority="116">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19:AC19">
-    <cfRule type="expression" dxfId="437" priority="118">
+    <cfRule type="expression" dxfId="435" priority="118">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AF19">
-    <cfRule type="expression" dxfId="436" priority="117">
+    <cfRule type="expression" dxfId="434" priority="117">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20:BH20 CF20:CM21 A20 CV20:DC21">
-    <cfRule type="expression" dxfId="435" priority="112">
+    <cfRule type="expression" dxfId="433" priority="112">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI20:BS20">
-    <cfRule type="expression" dxfId="434" priority="109">
+    <cfRule type="expression" dxfId="432" priority="109">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:AC20">
-    <cfRule type="expression" dxfId="433" priority="111">
+    <cfRule type="expression" dxfId="431" priority="111">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD20:AF20">
-    <cfRule type="expression" dxfId="432" priority="110">
+    <cfRule type="expression" dxfId="430" priority="110">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:W20">
-    <cfRule type="expression" dxfId="431" priority="108">
+    <cfRule type="expression" dxfId="429" priority="108">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI21:BS21">
-    <cfRule type="expression" dxfId="430" priority="100">
+    <cfRule type="expression" dxfId="428" priority="100">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:E20">
-    <cfRule type="expression" dxfId="429" priority="106">
+    <cfRule type="expression" dxfId="427" priority="106">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:N20">
-    <cfRule type="expression" dxfId="428" priority="104">
+    <cfRule type="expression" dxfId="426" priority="104">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:N23">
-    <cfRule type="expression" dxfId="427" priority="77">
+    <cfRule type="expression" dxfId="425" priority="77">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:BH21 A21">
-    <cfRule type="expression" dxfId="426" priority="103">
+    <cfRule type="expression" dxfId="424" priority="103">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:AC21">
-    <cfRule type="expression" dxfId="425" priority="102">
+    <cfRule type="expression" dxfId="423" priority="102">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD21:AF21">
-    <cfRule type="expression" dxfId="424" priority="101">
+    <cfRule type="expression" dxfId="422" priority="101">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:E23">
-    <cfRule type="expression" dxfId="423" priority="78">
+    <cfRule type="expression" dxfId="421" priority="78">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:W23">
-    <cfRule type="expression" dxfId="422" priority="79">
+    <cfRule type="expression" dxfId="420" priority="79">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:N22">
-    <cfRule type="expression" dxfId="421" priority="87">
+    <cfRule type="expression" dxfId="419" priority="87">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF23:CM23 CV23:DC23">
-    <cfRule type="expression" dxfId="420" priority="86">
+    <cfRule type="expression" dxfId="418" priority="86">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT23:BH23 A23">
-    <cfRule type="expression" dxfId="419" priority="83">
+    <cfRule type="expression" dxfId="417" priority="83">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI23:BS23">
-    <cfRule type="expression" dxfId="418" priority="80">
+    <cfRule type="expression" dxfId="416" priority="80">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22:AJ22">
-    <cfRule type="expression" dxfId="417" priority="76">
+    <cfRule type="expression" dxfId="415" priority="76">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:AC22">
-    <cfRule type="expression" dxfId="416" priority="75">
+    <cfRule type="expression" dxfId="414" priority="75">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AF22">
-    <cfRule type="expression" dxfId="415" priority="74">
+    <cfRule type="expression" dxfId="413" priority="74">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23:AJ23">
-    <cfRule type="expression" dxfId="414" priority="73">
+    <cfRule type="expression" dxfId="412" priority="73">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:AC23">
-    <cfRule type="expression" dxfId="413" priority="72">
+    <cfRule type="expression" dxfId="411" priority="72">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AF23">
-    <cfRule type="expression" dxfId="412" priority="71">
+    <cfRule type="expression" dxfId="410" priority="71">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AS26">
-    <cfRule type="expression" dxfId="411" priority="37">
+    <cfRule type="expression" dxfId="409" priority="37">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:W24">
-    <cfRule type="expression" dxfId="410" priority="62">
+    <cfRule type="expression" dxfId="408" priority="62">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:N24">
-    <cfRule type="expression" dxfId="409" priority="60">
+    <cfRule type="expression" dxfId="407" priority="60">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:E24">
-    <cfRule type="expression" dxfId="408" priority="61">
+    <cfRule type="expression" dxfId="406" priority="61">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF25:CM25 CV25:DC25">
-    <cfRule type="expression" dxfId="407" priority="59">
+    <cfRule type="expression" dxfId="405" priority="59">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT25:BH25 A25">
-    <cfRule type="expression" dxfId="406" priority="56">
+    <cfRule type="expression" dxfId="404" priority="56">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF26:CM26 CV26:DC26">
-    <cfRule type="expression" dxfId="405" priority="51">
+    <cfRule type="expression" dxfId="403" priority="51">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:N25">
-    <cfRule type="expression" dxfId="404" priority="52">
+    <cfRule type="expression" dxfId="402" priority="52">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25:BS25">
-    <cfRule type="expression" dxfId="403" priority="55">
+    <cfRule type="expression" dxfId="401" priority="55">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF24:CM24 CV24:DC24">
-    <cfRule type="expression" dxfId="402" priority="69">
+    <cfRule type="expression" dxfId="400" priority="69">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:N26">
-    <cfRule type="expression" dxfId="401" priority="44">
+    <cfRule type="expression" dxfId="399" priority="44">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG24:BH24 A24">
-    <cfRule type="expression" dxfId="400" priority="66">
+    <cfRule type="expression" dxfId="398" priority="66">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI24:BS24">
-    <cfRule type="expression" dxfId="399" priority="63">
+    <cfRule type="expression" dxfId="397" priority="63">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:AC24">
-    <cfRule type="expression" dxfId="398" priority="65">
+    <cfRule type="expression" dxfId="396" priority="65">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AF24">
-    <cfRule type="expression" dxfId="397" priority="64">
+    <cfRule type="expression" dxfId="395" priority="64">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AJ25">
-    <cfRule type="expression" dxfId="396" priority="43">
+    <cfRule type="expression" dxfId="394" priority="43">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:W25">
-    <cfRule type="expression" dxfId="395" priority="54">
+    <cfRule type="expression" dxfId="393" priority="54">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:E25">
-    <cfRule type="expression" dxfId="394" priority="53">
+    <cfRule type="expression" dxfId="392" priority="53">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT26:BH26 A26">
-    <cfRule type="expression" dxfId="393" priority="48">
+    <cfRule type="expression" dxfId="391" priority="48">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI26:BS26">
-    <cfRule type="expression" dxfId="392" priority="47">
+    <cfRule type="expression" dxfId="390" priority="47">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:E26">
-    <cfRule type="expression" dxfId="391" priority="45">
+    <cfRule type="expression" dxfId="389" priority="45">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:W26">
-    <cfRule type="expression" dxfId="390" priority="46">
+    <cfRule type="expression" dxfId="388" priority="46">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:AC25">
-    <cfRule type="expression" dxfId="389" priority="42">
+    <cfRule type="expression" dxfId="387" priority="42">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25:AF25">
-    <cfRule type="expression" dxfId="388" priority="41">
+    <cfRule type="expression" dxfId="386" priority="41">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG26:AJ26">
-    <cfRule type="expression" dxfId="387" priority="40">
+    <cfRule type="expression" dxfId="385" priority="40">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:AC26">
-    <cfRule type="expression" dxfId="386" priority="39">
+    <cfRule type="expression" dxfId="384" priority="39">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD26:AF26">
-    <cfRule type="expression" dxfId="385" priority="38">
+    <cfRule type="expression" dxfId="383" priority="38">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8:CA27">
-    <cfRule type="expression" dxfId="384" priority="36">
+    <cfRule type="expression" dxfId="382" priority="36">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BW13">
-    <cfRule type="expression" dxfId="383" priority="35">
+    <cfRule type="expression" dxfId="381" priority="35">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT15:BW26">
-    <cfRule type="expression" dxfId="382" priority="34">
+    <cfRule type="expression" dxfId="380" priority="34">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN5:CU26">
-    <cfRule type="expression" dxfId="381" priority="30">
+    <cfRule type="expression" dxfId="379" priority="30">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB9:CE13">
-    <cfRule type="expression" dxfId="380" priority="28">
+    <cfRule type="expression" dxfId="378" priority="28">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AF12">
-    <cfRule type="expression" dxfId="379" priority="14">
+    <cfRule type="expression" dxfId="377" priority="14">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF10:CI11">
-    <cfRule type="expression" dxfId="378" priority="23">
+    <cfRule type="expression" dxfId="376" priority="23">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:CM13">
-    <cfRule type="expression" dxfId="377" priority="8">
+    <cfRule type="expression" dxfId="375" priority="8">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:CM11">
-    <cfRule type="expression" dxfId="376" priority="21">
+    <cfRule type="expression" dxfId="374" priority="21">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:N8">
-    <cfRule type="expression" dxfId="375" priority="20">
+    <cfRule type="expression" dxfId="373" priority="20">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11:AJ11 X11:AC11">
-    <cfRule type="expression" dxfId="374" priority="19">
+    <cfRule type="expression" dxfId="372" priority="19">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AF11">
-    <cfRule type="expression" dxfId="373" priority="18">
+    <cfRule type="expression" dxfId="371" priority="18">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11:AS11">
-    <cfRule type="expression" dxfId="372" priority="17">
+    <cfRule type="expression" dxfId="370" priority="17">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF9:CI9">
-    <cfRule type="expression" dxfId="371" priority="16">
+    <cfRule type="expression" dxfId="369" priority="16">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AJ12 X12:AC12">
-    <cfRule type="expression" dxfId="370" priority="15">
+    <cfRule type="expression" dxfId="368" priority="15">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AJ13 X13:AC13">
-    <cfRule type="expression" dxfId="369" priority="13">
+    <cfRule type="expression" dxfId="367" priority="13">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13:AF13">
-    <cfRule type="expression" dxfId="368" priority="12">
+    <cfRule type="expression" dxfId="366" priority="12">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AS12">
-    <cfRule type="expression" dxfId="367" priority="11">
+    <cfRule type="expression" dxfId="365" priority="11">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AS13">
-    <cfRule type="expression" dxfId="366" priority="10">
+    <cfRule type="expression" dxfId="364" priority="10">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF12:CI13">
-    <cfRule type="expression" dxfId="365" priority="9">
+    <cfRule type="expression" dxfId="363" priority="9">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB5:CE8">
-    <cfRule type="expression" dxfId="364" priority="7">
+    <cfRule type="expression" dxfId="362" priority="7">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB15:CE15">
-    <cfRule type="expression" dxfId="363" priority="6">
+    <cfRule type="expression" dxfId="361" priority="6">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB16:CE26">
-    <cfRule type="expression" dxfId="362" priority="5">
+    <cfRule type="expression" dxfId="360" priority="5">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF5:CM5">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="359" priority="4">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF6:CM6">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="358" priority="3">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF7:CM7">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="357" priority="2">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF8:CM8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="356" priority="1">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13969,11 +13927,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14764E5-5F7A-413F-B765-9B383AB45232}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CV5" sqref="CV5:DC10"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5:AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.2109375" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -14000,136 +13958,136 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="36" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="36" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="36" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="36" t="s">
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="30" t="s">
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="36" t="s">
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="38"/>
-      <c r="CB2" s="36" t="s">
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="38"/>
-      <c r="CF2" s="36" t="s">
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="39"/>
+      <c r="CF2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="CG2" s="37"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="38"/>
-      <c r="CJ2" s="36" t="s">
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
+      <c r="CI2" s="39"/>
+      <c r="CJ2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="36" t="s">
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="39"/>
+      <c r="CN2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="CO2" s="37"/>
-      <c r="CP2" s="37"/>
-      <c r="CQ2" s="37"/>
-      <c r="CR2" s="37"/>
-      <c r="CS2" s="37"/>
-      <c r="CT2" s="37"/>
-      <c r="CU2" s="38"/>
-      <c r="CV2" s="36" t="s">
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="38"/>
+      <c r="CQ2" s="38"/>
+      <c r="CR2" s="38"/>
+      <c r="CS2" s="38"/>
+      <c r="CT2" s="38"/>
+      <c r="CU2" s="39"/>
+      <c r="CV2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="CW2" s="37"/>
-      <c r="CX2" s="37"/>
-      <c r="CY2" s="37"/>
-      <c r="CZ2" s="37"/>
-      <c r="DA2" s="37"/>
-      <c r="DB2" s="37"/>
-      <c r="DC2" s="38"/>
+      <c r="CW2" s="38"/>
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="38"/>
+      <c r="DC2" s="39"/>
     </row>
-    <row r="3" spans="1:107" ht="54.65" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:107" ht="54.65" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -14217,10 +14175,10 @@
       <c r="BQ3" s="46"/>
       <c r="BR3" s="46"/>
       <c r="BS3" s="47"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="39"/>
+      <c r="BT3" s="40"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="40"/>
+      <c r="BW3" s="40"/>
       <c r="BX3" s="48" t="s">
         <v>16</v>
       </c>
@@ -14311,7 +14269,7 @@
       <c r="AH4" s="19"/>
       <c r="AI4" s="19"/>
       <c r="AJ4" s="19"/>
-      <c r="AK4" s="40" t="s">
+      <c r="AK4" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AL4" s="19"/>
@@ -14351,7 +14309,7 @@
       <c r="BR4" s="16"/>
       <c r="BS4" s="17"/>
       <c r="BT4" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU4" s="20"/>
       <c r="BV4" s="20"/>
@@ -14389,7 +14347,7 @@
       <c r="CT4" s="19"/>
       <c r="CU4" s="19"/>
       <c r="CV4" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW4" s="16"/>
       <c r="CX4" s="16"/>
@@ -14449,7 +14407,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AL5" s="16"/>
       <c r="AM5" s="16"/>
@@ -14488,7 +14446,7 @@
       <c r="BR5" s="16"/>
       <c r="BS5" s="17"/>
       <c r="BT5" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU5" s="20"/>
       <c r="BV5" s="20"/>
@@ -14526,7 +14484,7 @@
       <c r="CT5" s="19"/>
       <c r="CU5" s="19"/>
       <c r="CV5" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW5" s="16"/>
       <c r="CX5" s="16"/>
@@ -14571,7 +14529,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="17"/>
       <c r="X6" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
@@ -14586,7 +14544,7 @@
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16"/>
@@ -14612,7 +14570,7 @@
       <c r="BG6" s="16"/>
       <c r="BH6" s="17"/>
       <c r="BI6" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="BJ6" s="16"/>
       <c r="BK6" s="16"/>
@@ -14625,7 +14583,7 @@
       <c r="BR6" s="16"/>
       <c r="BS6" s="17"/>
       <c r="BT6" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU6" s="20"/>
       <c r="BV6" s="20"/>
@@ -14663,7 +14621,7 @@
       <c r="CT6" s="19"/>
       <c r="CU6" s="19"/>
       <c r="CV6" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW6" s="16"/>
       <c r="CX6" s="16"/>
@@ -14762,7 +14720,7 @@
       <c r="BR7" s="16"/>
       <c r="BS7" s="17"/>
       <c r="BT7" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU7" s="20"/>
       <c r="BV7" s="20"/>
@@ -14800,7 +14758,7 @@
       <c r="CT7" s="19"/>
       <c r="CU7" s="19"/>
       <c r="CV7" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW7" s="16"/>
       <c r="CX7" s="16"/>
@@ -14899,7 +14857,7 @@
       <c r="BR8" s="19"/>
       <c r="BS8" s="19"/>
       <c r="BT8" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU8" s="20"/>
       <c r="BV8" s="20"/>
@@ -14937,7 +14895,7 @@
       <c r="CT8" s="19"/>
       <c r="CU8" s="19"/>
       <c r="CV8" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW8" s="16"/>
       <c r="CX8" s="16"/>
@@ -14982,7 +14940,7 @@
       <c r="V9" s="16"/>
       <c r="W9" s="17"/>
       <c r="X9" s="19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
@@ -14997,7 +14955,7 @@
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
@@ -15023,7 +14981,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="17"/>
       <c r="BI9" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
@@ -15036,7 +14994,7 @@
       <c r="BR9" s="16"/>
       <c r="BS9" s="17"/>
       <c r="BT9" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU9" s="20"/>
       <c r="BV9" s="20"/>
@@ -15074,7 +15032,7 @@
       <c r="CT9" s="19"/>
       <c r="CU9" s="19"/>
       <c r="CV9" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW9" s="16"/>
       <c r="CX9" s="16"/>
@@ -15134,7 +15092,7 @@
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
@@ -15173,7 +15131,7 @@
       <c r="BR10" s="19"/>
       <c r="BS10" s="19"/>
       <c r="BT10" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU10" s="20"/>
       <c r="BV10" s="20"/>
@@ -15211,7 +15169,7 @@
       <c r="CT10" s="19"/>
       <c r="CU10" s="19"/>
       <c r="CV10" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CW10" s="16"/>
       <c r="CX10" s="16"/>
@@ -15221,7 +15179,7 @@
       <c r="DB10" s="16"/>
       <c r="DC10" s="17"/>
     </row>
-    <row r="11" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -15271,7 +15229,7 @@
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
@@ -15297,7 +15255,7 @@
       <c r="BG11" s="19"/>
       <c r="BH11" s="19"/>
       <c r="BI11" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19"/>
@@ -15310,7 +15268,7 @@
       <c r="BR11" s="19"/>
       <c r="BS11" s="19"/>
       <c r="BT11" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU11" s="20"/>
       <c r="BV11" s="20"/>
@@ -15334,7 +15292,7 @@
       <c r="CH11" s="22"/>
       <c r="CI11" s="23"/>
       <c r="CJ11" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK11" s="28"/>
       <c r="CL11" s="28"/>
@@ -15352,7 +15310,7 @@
       <c r="CT11" s="19"/>
       <c r="CU11" s="19"/>
       <c r="CV11" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="CW11" s="19"/>
       <c r="CX11" s="19"/>
@@ -15362,7 +15320,7 @@
       <c r="DB11" s="19"/>
       <c r="DC11" s="19"/>
     </row>
-    <row r="12" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -15412,7 +15370,7 @@
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
@@ -15438,7 +15396,7 @@
       <c r="BG12" s="19"/>
       <c r="BH12" s="19"/>
       <c r="BI12" s="19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="BJ12" s="19"/>
       <c r="BK12" s="19"/>
@@ -15451,7 +15409,7 @@
       <c r="BR12" s="19"/>
       <c r="BS12" s="19"/>
       <c r="BT12" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU12" s="20"/>
       <c r="BV12" s="20"/>
@@ -15475,7 +15433,7 @@
       <c r="CH12" s="22"/>
       <c r="CI12" s="23"/>
       <c r="CJ12" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK12" s="28"/>
       <c r="CL12" s="28"/>
@@ -15493,7 +15451,7 @@
       <c r="CT12" s="19"/>
       <c r="CU12" s="19"/>
       <c r="CV12" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="CW12" s="19"/>
       <c r="CX12" s="19"/>
@@ -15503,7 +15461,7 @@
       <c r="DB12" s="19"/>
       <c r="DC12" s="19"/>
     </row>
-    <row r="13" spans="1:107" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:107" ht="110.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -15527,7 +15485,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
       <c r="O13" s="19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -15538,7 +15496,7 @@
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
@@ -15553,7 +15511,7 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
@@ -15579,7 +15537,7 @@
       <c r="BG13" s="19"/>
       <c r="BH13" s="19"/>
       <c r="BI13" s="19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19"/>
@@ -15592,7 +15550,7 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="19"/>
       <c r="BT13" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
@@ -15616,7 +15574,7 @@
       <c r="CH13" s="22"/>
       <c r="CI13" s="23"/>
       <c r="CJ13" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK13" s="28"/>
       <c r="CL13" s="28"/>
@@ -15634,7 +15592,7 @@
       <c r="CT13" s="19"/>
       <c r="CU13" s="19"/>
       <c r="CV13" s="19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="CW13" s="19"/>
       <c r="CX13" s="19"/>
@@ -15644,7 +15602,7 @@
       <c r="DB13" s="19"/>
       <c r="DC13" s="19"/>
     </row>
-    <row r="14" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -15733,7 +15691,7 @@
       <c r="BR14" s="19"/>
       <c r="BS14" s="19"/>
       <c r="BT14" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU14" s="20"/>
       <c r="BV14" s="20"/>
@@ -15779,7 +15737,7 @@
       <c r="DB14" s="16"/>
       <c r="DC14" s="17"/>
     </row>
-    <row r="15" spans="1:107" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:107" ht="108" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -15868,7 +15826,7 @@
       <c r="BR15" s="19"/>
       <c r="BS15" s="19"/>
       <c r="BT15" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU15" s="20"/>
       <c r="BV15" s="20"/>
@@ -18009,11 +17967,7 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="5" showButton="0">
-      <filters>
-        <filter val="UserController.java"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
@@ -18138,6 +18092,10 @@
     <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="BT3:BW3"/>
     <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="X2:AJ2"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BH2"/>
+    <mergeCell ref="CF3:CI3"/>
     <mergeCell ref="BT7:BW7"/>
     <mergeCell ref="BT10:BW10"/>
     <mergeCell ref="BT11:BW11"/>
@@ -18527,10 +18485,6 @@
     <mergeCell ref="BI4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="X2:AJ2"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BH2"/>
-    <mergeCell ref="CF3:CI3"/>
     <mergeCell ref="CJ3:CM3"/>
     <mergeCell ref="CN3:CU3"/>
     <mergeCell ref="CV3:DC3"/>
@@ -18571,857 +18525,857 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="BI19:BS19 A3:N3 BX25:CM35 A26:E35 AG16:BH19 X3:AC3 AG11:BH11 CV3:DC4 A4:E4 CV14:DC14 CF5:CU5 BT5:BW5 BT7:BW8 CN7:CU8 CF7:CM7 CN10:CU12 BT10:BW12 BX16:CA22 A16:A24 B16:E25 CN16:DC35 BT16:BW16 CN14:CU15 CB15:CM24">
-    <cfRule type="expression" dxfId="1" priority="363">
+    <cfRule type="expression" dxfId="355" priority="363">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:W16">
-    <cfRule type="expression" dxfId="361" priority="339">
+    <cfRule type="expression" dxfId="354" priority="339">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:N17">
-    <cfRule type="expression" dxfId="360" priority="338">
+    <cfRule type="expression" dxfId="353" priority="338">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:W17">
-    <cfRule type="expression" dxfId="359" priority="337">
+    <cfRule type="expression" dxfId="352" priority="337">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:N18">
-    <cfRule type="expression" dxfId="358" priority="336">
+    <cfRule type="expression" dxfId="351" priority="336">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:W18">
-    <cfRule type="expression" dxfId="357" priority="335">
+    <cfRule type="expression" dxfId="350" priority="335">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:N19">
-    <cfRule type="expression" dxfId="356" priority="334">
+    <cfRule type="expression" dxfId="349" priority="334">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:W19">
-    <cfRule type="expression" dxfId="355" priority="333">
+    <cfRule type="expression" dxfId="348" priority="333">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:AC16">
-    <cfRule type="expression" dxfId="354" priority="355">
+    <cfRule type="expression" dxfId="347" priority="355">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16:AF16">
-    <cfRule type="expression" dxfId="353" priority="354">
+    <cfRule type="expression" dxfId="346" priority="354">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI16:BS16">
-    <cfRule type="expression" dxfId="352" priority="353">
+    <cfRule type="expression" dxfId="345" priority="353">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:W5">
-    <cfRule type="expression" dxfId="351" priority="316">
+    <cfRule type="expression" dxfId="344" priority="316">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:N16">
-    <cfRule type="expression" dxfId="350" priority="340">
+    <cfRule type="expression" dxfId="343" priority="340">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX23:CA24">
-    <cfRule type="expression" dxfId="349" priority="321">
+    <cfRule type="expression" dxfId="342" priority="321">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:N20 AG20:BH20 AG21:AJ22 F26:BS34 X23:BS25">
-    <cfRule type="expression" dxfId="348" priority="332">
+    <cfRule type="expression" dxfId="341" priority="332">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:W20">
-    <cfRule type="expression" dxfId="347" priority="331">
+    <cfRule type="expression" dxfId="340" priority="331">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:N21">
-    <cfRule type="expression" dxfId="346" priority="330">
+    <cfRule type="expression" dxfId="339" priority="330">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:W21">
-    <cfRule type="expression" dxfId="345" priority="329">
+    <cfRule type="expression" dxfId="338" priority="329">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:N22">
-    <cfRule type="expression" dxfId="344" priority="328">
+    <cfRule type="expression" dxfId="337" priority="328">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:W22">
-    <cfRule type="expression" dxfId="343" priority="327">
+    <cfRule type="expression" dxfId="336" priority="327">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AJ5 X5:AC5">
-    <cfRule type="expression" dxfId="342" priority="205">
+    <cfRule type="expression" dxfId="335" priority="205">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX10:CA10">
-    <cfRule type="expression" dxfId="341" priority="291">
+    <cfRule type="expression" dxfId="334" priority="291">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="340" priority="279">
+    <cfRule type="expression" dxfId="333" priority="279">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:W25">
-    <cfRule type="expression" dxfId="339" priority="322">
+    <cfRule type="expression" dxfId="332" priority="322">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:N25">
-    <cfRule type="expression" dxfId="338" priority="320">
+    <cfRule type="expression" dxfId="331" priority="320">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:CA5">
-    <cfRule type="expression" dxfId="337" priority="314">
+    <cfRule type="expression" dxfId="330" priority="314">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="336" priority="313">
+    <cfRule type="expression" dxfId="329" priority="313">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF10:CM10">
-    <cfRule type="expression" dxfId="335" priority="293">
+    <cfRule type="expression" dxfId="328" priority="293">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:CA7">
-    <cfRule type="expression" dxfId="334" priority="308">
+    <cfRule type="expression" dxfId="327" priority="308">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:BS5">
-    <cfRule type="expression" dxfId="333" priority="318">
+    <cfRule type="expression" dxfId="326" priority="318">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
-    <cfRule type="expression" dxfId="332" priority="305">
+    <cfRule type="expression" dxfId="325" priority="305">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AF11">
-    <cfRule type="expression" dxfId="331" priority="272">
+    <cfRule type="expression" dxfId="324" priority="272">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="330" priority="307">
+    <cfRule type="expression" dxfId="323" priority="307">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:E10">
-    <cfRule type="expression" dxfId="329" priority="289">
+    <cfRule type="expression" dxfId="322" priority="289">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="328" priority="267">
+    <cfRule type="expression" dxfId="321" priority="267">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="327" priority="264">
+    <cfRule type="expression" dxfId="320" priority="264">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX14:CA14">
-    <cfRule type="expression" dxfId="326" priority="268">
+    <cfRule type="expression" dxfId="319" priority="268">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:BS3 BX3:CM4 AT4:BS4">
-    <cfRule type="expression" dxfId="325" priority="382">
+    <cfRule type="expression" dxfId="318" priority="382">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AF3">
-    <cfRule type="expression" dxfId="324" priority="381">
+    <cfRule type="expression" dxfId="317" priority="381">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:W3">
-    <cfRule type="expression" dxfId="323" priority="380">
+    <cfRule type="expression" dxfId="316" priority="380">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN3:CU3">
-    <cfRule type="expression" dxfId="322" priority="379">
+    <cfRule type="expression" dxfId="315" priority="379">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI18:BS18">
-    <cfRule type="expression" dxfId="321" priority="366">
+    <cfRule type="expression" dxfId="314" priority="366">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19:AC19">
-    <cfRule type="expression" dxfId="320" priority="365">
+    <cfRule type="expression" dxfId="313" priority="365">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:AC17">
-    <cfRule type="expression" dxfId="319" priority="371">
+    <cfRule type="expression" dxfId="312" priority="371">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AF17">
-    <cfRule type="expression" dxfId="318" priority="370">
+    <cfRule type="expression" dxfId="311" priority="370">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:AC18">
-    <cfRule type="expression" dxfId="317" priority="368">
+    <cfRule type="expression" dxfId="310" priority="368">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI17:BS17">
-    <cfRule type="expression" dxfId="316" priority="369">
+    <cfRule type="expression" dxfId="309" priority="369">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD18:AF18">
-    <cfRule type="expression" dxfId="315" priority="367">
+    <cfRule type="expression" dxfId="308" priority="367">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AF19">
-    <cfRule type="expression" dxfId="314" priority="364">
+    <cfRule type="expression" dxfId="307" priority="364">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:AC20">
-    <cfRule type="expression" dxfId="313" priority="362">
+    <cfRule type="expression" dxfId="306" priority="362">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD20:AF20">
-    <cfRule type="expression" dxfId="312" priority="361">
+    <cfRule type="expression" dxfId="305" priority="361">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI20:BS20">
-    <cfRule type="expression" dxfId="311" priority="360">
+    <cfRule type="expression" dxfId="304" priority="360">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT21:BH21">
-    <cfRule type="expression" dxfId="310" priority="359">
+    <cfRule type="expression" dxfId="303" priority="359">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI21:BS21">
-    <cfRule type="expression" dxfId="309" priority="358">
+    <cfRule type="expression" dxfId="302" priority="358">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22:BH22">
-    <cfRule type="expression" dxfId="308" priority="357">
+    <cfRule type="expression" dxfId="301" priority="357">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BS22">
-    <cfRule type="expression" dxfId="307" priority="356">
+    <cfRule type="expression" dxfId="300" priority="356">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:AC21">
-    <cfRule type="expression" dxfId="306" priority="352">
+    <cfRule type="expression" dxfId="299" priority="352">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD21:AF21">
-    <cfRule type="expression" dxfId="305" priority="351">
+    <cfRule type="expression" dxfId="298" priority="351">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:AC22">
-    <cfRule type="expression" dxfId="304" priority="350">
+    <cfRule type="expression" dxfId="297" priority="350">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AF22">
-    <cfRule type="expression" dxfId="303" priority="349">
+    <cfRule type="expression" dxfId="296" priority="349">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK21:AS21">
-    <cfRule type="expression" dxfId="302" priority="348">
+    <cfRule type="expression" dxfId="295" priority="348">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AS22">
-    <cfRule type="expression" dxfId="301" priority="347">
+    <cfRule type="expression" dxfId="294" priority="347">
       <formula>$CJ23="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="expression" dxfId="300" priority="306">
+    <cfRule type="expression" dxfId="293" priority="306">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI11:BS11">
-    <cfRule type="expression" dxfId="299" priority="271">
+    <cfRule type="expression" dxfId="292" priority="271">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="298" priority="303">
+    <cfRule type="expression" dxfId="291" priority="303">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:N23">
-    <cfRule type="expression" dxfId="297" priority="325">
+    <cfRule type="expression" dxfId="290" priority="325">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:W23">
-    <cfRule type="expression" dxfId="296" priority="324">
+    <cfRule type="expression" dxfId="289" priority="324">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:N24">
-    <cfRule type="expression" dxfId="295" priority="323">
+    <cfRule type="expression" dxfId="288" priority="323">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:CM11">
-    <cfRule type="expression" dxfId="294" priority="282">
+    <cfRule type="expression" dxfId="287" priority="282">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:W10">
-    <cfRule type="expression" dxfId="293" priority="166">
+    <cfRule type="expression" dxfId="286" priority="166">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB14:CM14">
-    <cfRule type="expression" dxfId="292" priority="270">
+    <cfRule type="expression" dxfId="285" priority="270">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="291" priority="290">
+    <cfRule type="expression" dxfId="284" priority="290">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E11">
-    <cfRule type="expression" dxfId="290" priority="278">
+    <cfRule type="expression" dxfId="283" priority="278">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="289" priority="246">
+    <cfRule type="expression" dxfId="282" priority="246">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E14">
-    <cfRule type="expression" dxfId="288" priority="266">
+    <cfRule type="expression" dxfId="281" priority="266">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:AC11">
-    <cfRule type="expression" dxfId="287" priority="273">
+    <cfRule type="expression" dxfId="280" priority="273">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX15:CA15">
-    <cfRule type="expression" dxfId="286" priority="247">
+    <cfRule type="expression" dxfId="279" priority="247">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7:BH7">
-    <cfRule type="expression" dxfId="285" priority="203">
+    <cfRule type="expression" dxfId="278" priority="203">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX11:CA11">
-    <cfRule type="expression" dxfId="284" priority="280">
+    <cfRule type="expression" dxfId="277" priority="280">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:N11">
-    <cfRule type="expression" dxfId="283" priority="276">
+    <cfRule type="expression" dxfId="276" priority="276">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:W11">
-    <cfRule type="expression" dxfId="282" priority="277">
+    <cfRule type="expression" dxfId="275" priority="277">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AS4 F4:N4 X4:AC4">
-    <cfRule type="expression" dxfId="281" priority="210">
+    <cfRule type="expression" dxfId="274" priority="210">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BS8">
-    <cfRule type="expression" dxfId="280" priority="164">
+    <cfRule type="expression" dxfId="273" priority="164">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT19:BW19">
-    <cfRule type="expression" dxfId="279" priority="211">
+    <cfRule type="expression" dxfId="272" priority="211">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI10:BS10">
-    <cfRule type="expression" dxfId="278" priority="168">
+    <cfRule type="expression" dxfId="271" priority="168">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10:AF10">
-    <cfRule type="expression" dxfId="277" priority="170">
+    <cfRule type="expression" dxfId="270" priority="170">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT10:BH10">
-    <cfRule type="expression" dxfId="276" priority="172">
+    <cfRule type="expression" dxfId="269" priority="172">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AJ10 X10:AC10">
-    <cfRule type="expression" dxfId="275" priority="171">
+    <cfRule type="expression" dxfId="268" priority="171">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:E15">
-    <cfRule type="expression" dxfId="274" priority="245">
+    <cfRule type="expression" dxfId="267" priority="245">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV15:DC15">
-    <cfRule type="expression" dxfId="273" priority="249">
+    <cfRule type="expression" dxfId="266" priority="249">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:W7">
-    <cfRule type="expression" dxfId="272" priority="202">
+    <cfRule type="expression" dxfId="265" priority="202">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AJ7 X7:AC7">
-    <cfRule type="expression" dxfId="271" priority="201">
+    <cfRule type="expression" dxfId="264" priority="201">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AF4">
-    <cfRule type="expression" dxfId="270" priority="209">
+    <cfRule type="expression" dxfId="263" priority="209">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:W4">
-    <cfRule type="expression" dxfId="269" priority="208">
+    <cfRule type="expression" dxfId="262" priority="208">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AF5">
-    <cfRule type="expression" dxfId="268" priority="204">
+    <cfRule type="expression" dxfId="261" priority="204">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT20:BW29 BT3:BW4">
-    <cfRule type="expression" dxfId="267" priority="216">
+    <cfRule type="expression" dxfId="260" priority="216">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT14:BW15">
-    <cfRule type="expression" dxfId="266" priority="215">
+    <cfRule type="expression" dxfId="259" priority="215">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT17:BW18">
-    <cfRule type="expression" dxfId="265" priority="214">
+    <cfRule type="expression" dxfId="258" priority="214">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12:BS12">
-    <cfRule type="expression" dxfId="264" priority="153">
+    <cfRule type="expression" dxfId="257" priority="153">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:AC14 AT14:BS14">
-    <cfRule type="expression" dxfId="263" priority="150">
+    <cfRule type="expression" dxfId="256" priority="150">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AJ14">
-    <cfRule type="expression" dxfId="262" priority="149">
+    <cfRule type="expression" dxfId="255" priority="149">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AF14">
-    <cfRule type="expression" dxfId="261" priority="148">
+    <cfRule type="expression" dxfId="254" priority="148">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK14:AS14">
-    <cfRule type="expression" dxfId="260" priority="147">
+    <cfRule type="expression" dxfId="253" priority="147">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:BS15 X15:AC15">
-    <cfRule type="expression" dxfId="259" priority="145">
+    <cfRule type="expression" dxfId="252" priority="145">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:W14">
-    <cfRule type="expression" dxfId="258" priority="146">
+    <cfRule type="expression" dxfId="251" priority="146">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15:AJ15">
-    <cfRule type="expression" dxfId="257" priority="144">
+    <cfRule type="expression" dxfId="250" priority="144">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AF7">
-    <cfRule type="expression" dxfId="256" priority="200">
+    <cfRule type="expression" dxfId="249" priority="200">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BS7">
-    <cfRule type="expression" dxfId="255" priority="198">
+    <cfRule type="expression" dxfId="248" priority="198">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8 AT8:BH8 CF8:CM8">
-    <cfRule type="expression" dxfId="254" priority="193">
+    <cfRule type="expression" dxfId="247" priority="193">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8:CA8">
-    <cfRule type="expression" dxfId="253" priority="192">
+    <cfRule type="expression" dxfId="246" priority="192">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:E8">
-    <cfRule type="expression" dxfId="252" priority="191">
+    <cfRule type="expression" dxfId="245" priority="191">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AF8">
-    <cfRule type="expression" dxfId="251" priority="186">
+    <cfRule type="expression" dxfId="244" priority="186">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:W8">
-    <cfRule type="expression" dxfId="250" priority="188">
+    <cfRule type="expression" dxfId="243" priority="188">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AJ8 X8:AC8">
-    <cfRule type="expression" dxfId="249" priority="187">
+    <cfRule type="expression" dxfId="242" priority="187">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:CM12">
-    <cfRule type="expression" dxfId="248" priority="162">
+    <cfRule type="expression" dxfId="241" priority="162">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AS8">
-    <cfRule type="expression" dxfId="247" priority="185">
+    <cfRule type="expression" dxfId="240" priority="185">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:AC12">
-    <cfRule type="expression" dxfId="246" priority="155">
+    <cfRule type="expression" dxfId="239" priority="155">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10:AS10">
-    <cfRule type="expression" dxfId="245" priority="165">
+    <cfRule type="expression" dxfId="238" priority="165">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:N15">
-    <cfRule type="expression" dxfId="244" priority="140">
+    <cfRule type="expression" dxfId="237" priority="140">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AJ12 AT12:BH12">
-    <cfRule type="expression" dxfId="243" priority="163">
+    <cfRule type="expression" dxfId="236" priority="163">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AF12">
-    <cfRule type="expression" dxfId="242" priority="154">
+    <cfRule type="expression" dxfId="235" priority="154">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="241" priority="159">
+    <cfRule type="expression" dxfId="234" priority="159">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E12">
-    <cfRule type="expression" dxfId="240" priority="158">
+    <cfRule type="expression" dxfId="233" priority="158">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15:AF15">
-    <cfRule type="expression" dxfId="239" priority="143">
+    <cfRule type="expression" dxfId="232" priority="143">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX12:CA12">
-    <cfRule type="expression" dxfId="238" priority="160">
+    <cfRule type="expression" dxfId="231" priority="160">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:N12">
-    <cfRule type="expression" dxfId="237" priority="156">
+    <cfRule type="expression" dxfId="230" priority="156">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:W12">
-    <cfRule type="expression" dxfId="236" priority="157">
+    <cfRule type="expression" dxfId="229" priority="157">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15:AS15">
-    <cfRule type="expression" dxfId="235" priority="142">
+    <cfRule type="expression" dxfId="228" priority="142">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:W15">
-    <cfRule type="expression" dxfId="234" priority="141">
+    <cfRule type="expression" dxfId="227" priority="141">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN4:CU4">
-    <cfRule type="expression" dxfId="233" priority="139">
+    <cfRule type="expression" dxfId="226" priority="139">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6:BW6 CF6:CU6">
-    <cfRule type="expression" dxfId="232" priority="51">
+    <cfRule type="expression" dxfId="225" priority="51">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6:CA6">
-    <cfRule type="expression" dxfId="231" priority="50">
+    <cfRule type="expression" dxfId="224" priority="50">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:E6">
-    <cfRule type="expression" dxfId="230" priority="48">
+    <cfRule type="expression" dxfId="223" priority="48">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="229" priority="49">
+    <cfRule type="expression" dxfId="222" priority="49">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AJ6 X6:AC6">
-    <cfRule type="expression" dxfId="228" priority="44">
+    <cfRule type="expression" dxfId="221" priority="44">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:W6">
-    <cfRule type="expression" dxfId="227" priority="45">
+    <cfRule type="expression" dxfId="220" priority="45">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:W13">
-    <cfRule type="expression" dxfId="226" priority="20">
+    <cfRule type="expression" dxfId="219" priority="20">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:BH6">
-    <cfRule type="expression" dxfId="225" priority="46">
+    <cfRule type="expression" dxfId="218" priority="46">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AF6">
-    <cfRule type="expression" dxfId="224" priority="43">
+    <cfRule type="expression" dxfId="217" priority="43">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI6:BS6">
-    <cfRule type="expression" dxfId="223" priority="42">
+    <cfRule type="expression" dxfId="216" priority="42">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT9:BW9 CF9:CU9">
-    <cfRule type="expression" dxfId="222" priority="41">
+    <cfRule type="expression" dxfId="215" priority="41">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX9:CA9">
-    <cfRule type="expression" dxfId="221" priority="40">
+    <cfRule type="expression" dxfId="214" priority="40">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E9">
-    <cfRule type="expression" dxfId="220" priority="38">
+    <cfRule type="expression" dxfId="213" priority="38">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="219" priority="39">
+    <cfRule type="expression" dxfId="212" priority="39">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AJ9 X9:AC9">
-    <cfRule type="expression" dxfId="218" priority="34">
+    <cfRule type="expression" dxfId="211" priority="34">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:BH9">
-    <cfRule type="expression" dxfId="217" priority="36">
+    <cfRule type="expression" dxfId="210" priority="36">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AF9">
-    <cfRule type="expression" dxfId="216" priority="33">
+    <cfRule type="expression" dxfId="209" priority="33">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI9:BS9">
-    <cfRule type="expression" dxfId="215" priority="32">
+    <cfRule type="expression" dxfId="208" priority="32">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:W9">
-    <cfRule type="expression" dxfId="214" priority="31">
+    <cfRule type="expression" dxfId="207" priority="31">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB11:CE12">
-    <cfRule type="expression" dxfId="213" priority="30">
+    <cfRule type="expression" dxfId="206" priority="30">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:N10">
-    <cfRule type="expression" dxfId="212" priority="28">
+    <cfRule type="expression" dxfId="205" priority="28">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AS12">
-    <cfRule type="expression" dxfId="211" priority="27">
+    <cfRule type="expression" dxfId="204" priority="27">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF11:CI12">
-    <cfRule type="expression" dxfId="210" priority="26">
+    <cfRule type="expression" dxfId="203" priority="26">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13:AF13">
-    <cfRule type="expression" dxfId="209" priority="22">
+    <cfRule type="expression" dxfId="202" priority="22">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX13:CA13">
-    <cfRule type="expression" dxfId="208" priority="18">
+    <cfRule type="expression" dxfId="201" priority="18">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AJ13 A13 AT13:BH13">
-    <cfRule type="expression" dxfId="207" priority="24">
+    <cfRule type="expression" dxfId="200" priority="24">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI13:BS13">
-    <cfRule type="expression" dxfId="206" priority="21">
+    <cfRule type="expression" dxfId="199" priority="21">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:AC13">
-    <cfRule type="expression" dxfId="205" priority="23">
+    <cfRule type="expression" dxfId="198" priority="23">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13">
-    <cfRule type="expression" dxfId="204" priority="19">
+    <cfRule type="expression" dxfId="197" priority="19">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:N13">
-    <cfRule type="expression" dxfId="203" priority="13">
+    <cfRule type="expression" dxfId="196" priority="13">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN13:CU13">
-    <cfRule type="expression" dxfId="202" priority="16">
+    <cfRule type="expression" dxfId="195" priority="16">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF13:CI13">
-    <cfRule type="expression" dxfId="201" priority="3">
+    <cfRule type="expression" dxfId="194" priority="3">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB13:CE13">
-    <cfRule type="expression" dxfId="200" priority="14">
+    <cfRule type="expression" dxfId="193" priority="14">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AS13">
-    <cfRule type="expression" dxfId="199" priority="12">
+    <cfRule type="expression" dxfId="192" priority="12">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB5:CE10">
-    <cfRule type="expression" dxfId="198" priority="2">
+    <cfRule type="expression" dxfId="191" priority="2">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV11:DC11">
-    <cfRule type="expression" dxfId="197" priority="8">
+    <cfRule type="expression" dxfId="190" priority="8">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV12:DC12">
-    <cfRule type="expression" dxfId="196" priority="7">
+    <cfRule type="expression" dxfId="189" priority="7">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV13:DC13">
-    <cfRule type="expression" dxfId="195" priority="6">
+    <cfRule type="expression" dxfId="188" priority="6">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT13:BW13">
-    <cfRule type="expression" dxfId="194" priority="5">
+    <cfRule type="expression" dxfId="187" priority="5">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ13:CM13">
-    <cfRule type="expression" dxfId="193" priority="4">
+    <cfRule type="expression" dxfId="186" priority="4">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:DC10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="185" priority="1">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19442,11 +19396,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0484D8-272F-4BBF-9FAB-BAEBBA0AD4A3}">
-  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:DC38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15:AJ15"/>
+      <selection activeCell="F4" sqref="F4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.2109375" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -19473,136 +19427,136 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="36" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="36" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="36" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="36" t="s">
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="30" t="s">
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="36" t="s">
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="38"/>
-      <c r="CB2" s="36" t="s">
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="38"/>
-      <c r="CF2" s="36" t="s">
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="39"/>
+      <c r="CF2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="CG2" s="37"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="38"/>
-      <c r="CJ2" s="36" t="s">
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
+      <c r="CI2" s="39"/>
+      <c r="CJ2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="36" t="s">
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="39"/>
+      <c r="CN2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="CO2" s="37"/>
-      <c r="CP2" s="37"/>
-      <c r="CQ2" s="37"/>
-      <c r="CR2" s="37"/>
-      <c r="CS2" s="37"/>
-      <c r="CT2" s="37"/>
-      <c r="CU2" s="38"/>
-      <c r="CV2" s="36" t="s">
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="38"/>
+      <c r="CQ2" s="38"/>
+      <c r="CR2" s="38"/>
+      <c r="CS2" s="38"/>
+      <c r="CT2" s="38"/>
+      <c r="CU2" s="39"/>
+      <c r="CV2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="CW2" s="37"/>
-      <c r="CX2" s="37"/>
-      <c r="CY2" s="37"/>
-      <c r="CZ2" s="37"/>
-      <c r="DA2" s="37"/>
-      <c r="DB2" s="37"/>
-      <c r="DC2" s="38"/>
+      <c r="CW2" s="38"/>
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="38"/>
+      <c r="DC2" s="39"/>
     </row>
-    <row r="3" spans="1:107" ht="54.65" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:107" ht="54.65" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -19690,10 +19644,10 @@
       <c r="BQ3" s="46"/>
       <c r="BR3" s="46"/>
       <c r="BS3" s="47"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="39"/>
+      <c r="BT3" s="40"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="40"/>
+      <c r="BW3" s="40"/>
       <c r="BX3" s="48" t="s">
         <v>16</v>
       </c>
@@ -19770,7 +19724,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="17"/>
       <c r="X4" s="19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
@@ -19785,7 +19739,7 @@
       <c r="AI4" s="19"/>
       <c r="AJ4" s="19"/>
       <c r="AK4" s="66" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AL4" s="67"/>
       <c r="AM4" s="67"/>
@@ -19811,7 +19765,7 @@
       <c r="BG4" s="16"/>
       <c r="BH4" s="17"/>
       <c r="BI4" s="15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
@@ -19824,7 +19778,7 @@
       <c r="BR4" s="16"/>
       <c r="BS4" s="17"/>
       <c r="BT4" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU4" s="20"/>
       <c r="BV4" s="20"/>
@@ -19848,7 +19802,7 @@
       <c r="CH4" s="22"/>
       <c r="CI4" s="23"/>
       <c r="CJ4" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK4" s="28"/>
       <c r="CL4" s="28"/>
@@ -19874,7 +19828,7 @@
       <c r="DB4" s="16"/>
       <c r="DC4" s="17"/>
     </row>
-    <row r="5" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A14" si="1">ROW(A5)-3</f>
         <v>2</v>
@@ -19909,7 +19863,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="17"/>
       <c r="X5" s="15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
@@ -19924,7 +19878,7 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="17"/>
       <c r="AK5" s="15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AL5" s="16"/>
       <c r="AM5" s="16"/>
@@ -19950,7 +19904,7 @@
       <c r="BG5" s="16"/>
       <c r="BH5" s="17"/>
       <c r="BI5" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="BJ5" s="16"/>
       <c r="BK5" s="16"/>
@@ -19963,7 +19917,7 @@
       <c r="BR5" s="16"/>
       <c r="BS5" s="17"/>
       <c r="BT5" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU5" s="20"/>
       <c r="BV5" s="20"/>
@@ -19987,7 +19941,7 @@
       <c r="CH5" s="22"/>
       <c r="CI5" s="23"/>
       <c r="CJ5" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK5" s="28"/>
       <c r="CL5" s="28"/>
@@ -20005,7 +19959,7 @@
       <c r="CT5" s="19"/>
       <c r="CU5" s="19"/>
       <c r="CV5" s="19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="CW5" s="19"/>
       <c r="CX5" s="19"/>
@@ -20050,7 +20004,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="17"/>
       <c r="X6" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -20065,7 +20019,7 @@
       <c r="AI6" s="16"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16"/>
@@ -20091,7 +20045,7 @@
       <c r="BG6" s="16"/>
       <c r="BH6" s="17"/>
       <c r="BI6" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="BJ6" s="16"/>
       <c r="BK6" s="16"/>
@@ -20104,7 +20058,7 @@
       <c r="BR6" s="16"/>
       <c r="BS6" s="17"/>
       <c r="BT6" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU6" s="20"/>
       <c r="BV6" s="20"/>
@@ -20128,7 +20082,7 @@
       <c r="CH6" s="22"/>
       <c r="CI6" s="23"/>
       <c r="CJ6" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK6" s="28"/>
       <c r="CL6" s="28"/>
@@ -20154,7 +20108,7 @@
       <c r="DB6" s="16"/>
       <c r="DC6" s="17"/>
     </row>
-    <row r="7" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A7" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -20178,7 +20132,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
       <c r="O7" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -20189,7 +20143,7 @@
       <c r="V7" s="16"/>
       <c r="W7" s="17"/>
       <c r="X7" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -20204,7 +20158,7 @@
       <c r="AI7" s="16"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AL7" s="16"/>
       <c r="AM7" s="16"/>
@@ -20230,7 +20184,7 @@
       <c r="BG7" s="16"/>
       <c r="BH7" s="17"/>
       <c r="BI7" s="15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="BJ7" s="16"/>
       <c r="BK7" s="16"/>
@@ -20243,7 +20197,7 @@
       <c r="BR7" s="16"/>
       <c r="BS7" s="17"/>
       <c r="BT7" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU7" s="20"/>
       <c r="BV7" s="20"/>
@@ -20267,7 +20221,7 @@
       <c r="CH7" s="22"/>
       <c r="CI7" s="23"/>
       <c r="CJ7" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK7" s="28"/>
       <c r="CL7" s="28"/>
@@ -20285,7 +20239,7 @@
       <c r="CT7" s="19"/>
       <c r="CU7" s="19"/>
       <c r="CV7" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="CW7" s="19"/>
       <c r="CX7" s="19"/>
@@ -20330,7 +20284,7 @@
       <c r="V8" s="16"/>
       <c r="W8" s="17"/>
       <c r="X8" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
@@ -20345,7 +20299,7 @@
       <c r="AI8" s="16"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
@@ -20371,7 +20325,7 @@
       <c r="BG8" s="16"/>
       <c r="BH8" s="17"/>
       <c r="BI8" s="15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="BJ8" s="16"/>
       <c r="BK8" s="16"/>
@@ -20384,7 +20338,7 @@
       <c r="BR8" s="16"/>
       <c r="BS8" s="17"/>
       <c r="BT8" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU8" s="20"/>
       <c r="BV8" s="20"/>
@@ -20408,7 +20362,7 @@
       <c r="CH8" s="22"/>
       <c r="CI8" s="23"/>
       <c r="CJ8" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK8" s="28"/>
       <c r="CL8" s="28"/>
@@ -20434,7 +20388,7 @@
       <c r="DB8" s="16"/>
       <c r="DC8" s="17"/>
     </row>
-    <row r="9" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -20458,7 +20412,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
       <c r="O9" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -20469,7 +20423,7 @@
       <c r="V9" s="16"/>
       <c r="W9" s="17"/>
       <c r="X9" s="15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -20484,7 +20438,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="17"/>
       <c r="AK9" s="15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
@@ -20510,7 +20464,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="17"/>
       <c r="BI9" s="15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
@@ -20523,7 +20477,7 @@
       <c r="BR9" s="16"/>
       <c r="BS9" s="17"/>
       <c r="BT9" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BU9" s="20"/>
       <c r="BV9" s="20"/>
@@ -20547,7 +20501,7 @@
       <c r="CH9" s="22"/>
       <c r="CI9" s="23"/>
       <c r="CJ9" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="CK9" s="28"/>
       <c r="CL9" s="28"/>
@@ -20565,7 +20519,7 @@
       <c r="CT9" s="19"/>
       <c r="CU9" s="19"/>
       <c r="CV9" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="CW9" s="19"/>
       <c r="CX9" s="19"/>
@@ -20575,7 +20529,7 @@
       <c r="DB9" s="19"/>
       <c r="DC9" s="19"/>
     </row>
-    <row r="10" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -20588,7 +20542,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="59"/>
       <c r="F10" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -20599,7 +20553,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
       <c r="O10" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -20610,7 +20564,7 @@
       <c r="V10" s="16"/>
       <c r="W10" s="17"/>
       <c r="X10" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
@@ -20625,7 +20579,7 @@
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19"/>
@@ -20651,7 +20605,7 @@
       <c r="BG10" s="19"/>
       <c r="BH10" s="19"/>
       <c r="BI10" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="19"/>
@@ -20664,7 +20618,7 @@
       <c r="BR10" s="19"/>
       <c r="BS10" s="19"/>
       <c r="BT10" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU10" s="20"/>
       <c r="BV10" s="20"/>
@@ -20710,7 +20664,7 @@
       <c r="DB10" s="16"/>
       <c r="DC10" s="17"/>
     </row>
-    <row r="11" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -20723,7 +20677,7 @@
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
       <c r="F11" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -20734,7 +20688,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
       <c r="O11" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -20745,7 +20699,7 @@
       <c r="V11" s="16"/>
       <c r="W11" s="17"/>
       <c r="X11" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -20760,7 +20714,7 @@
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
@@ -20786,7 +20740,7 @@
       <c r="BG11" s="19"/>
       <c r="BH11" s="19"/>
       <c r="BI11" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19"/>
@@ -20799,7 +20753,7 @@
       <c r="BR11" s="19"/>
       <c r="BS11" s="19"/>
       <c r="BT11" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU11" s="20"/>
       <c r="BV11" s="20"/>
@@ -20845,7 +20799,7 @@
       <c r="DB11" s="16"/>
       <c r="DC11" s="17"/>
     </row>
-    <row r="12" spans="1:107" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:107" ht="109.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -20858,7 +20812,7 @@
       <c r="D12" s="58"/>
       <c r="E12" s="59"/>
       <c r="F12" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -20869,7 +20823,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
       <c r="O12" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -20880,7 +20834,7 @@
       <c r="V12" s="16"/>
       <c r="W12" s="17"/>
       <c r="X12" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
@@ -20895,7 +20849,7 @@
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
@@ -20921,7 +20875,7 @@
       <c r="BG12" s="19"/>
       <c r="BH12" s="19"/>
       <c r="BI12" s="19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="BJ12" s="19"/>
       <c r="BK12" s="19"/>
@@ -20934,7 +20888,7 @@
       <c r="BR12" s="19"/>
       <c r="BS12" s="19"/>
       <c r="BT12" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU12" s="20"/>
       <c r="BV12" s="20"/>
@@ -20980,7 +20934,7 @@
       <c r="DB12" s="16"/>
       <c r="DC12" s="17"/>
     </row>
-    <row r="13" spans="1:107" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:107" ht="108" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -20993,7 +20947,7 @@
       <c r="D13" s="58"/>
       <c r="E13" s="59"/>
       <c r="F13" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -21004,7 +20958,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
       <c r="O13" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -21015,7 +20969,7 @@
       <c r="V13" s="16"/>
       <c r="W13" s="17"/>
       <c r="X13" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
@@ -21030,7 +20984,7 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
@@ -21056,7 +21010,7 @@
       <c r="BG13" s="19"/>
       <c r="BH13" s="19"/>
       <c r="BI13" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19"/>
@@ -21069,7 +21023,7 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="19"/>
       <c r="BT13" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
@@ -21115,7 +21069,7 @@
       <c r="DB13" s="16"/>
       <c r="DC13" s="17"/>
     </row>
-    <row r="14" spans="1:107" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:107" ht="108" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -21128,7 +21082,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -21139,7 +21093,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
       <c r="O14" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -21150,7 +21104,7 @@
       <c r="V14" s="16"/>
       <c r="W14" s="17"/>
       <c r="X14" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -21165,7 +21119,7 @@
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AL14" s="19"/>
       <c r="AM14" s="19"/>
@@ -21191,7 +21145,7 @@
       <c r="BG14" s="19"/>
       <c r="BH14" s="19"/>
       <c r="BI14" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="BJ14" s="19"/>
       <c r="BK14" s="19"/>
@@ -21204,7 +21158,7 @@
       <c r="BR14" s="19"/>
       <c r="BS14" s="19"/>
       <c r="BT14" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BU14" s="20"/>
       <c r="BV14" s="20"/>
@@ -23781,11 +23735,7 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="5" showButton="0">
-      <filters>
-        <filter val="UserController.java"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
@@ -24385,927 +24335,927 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="BX16:CA25 A9 A16:A27 B16:E28 A3:N4 BX28:CM38 AT9:BH9 A29:E38 AT4:BH4 CN16:DC38 AG19:BH22 AG11:BH11 CV3:DC4 AT13:BS13 CB15:CM27 X17:AC18 AT17:BS18 X3:AC3 X5:AC6 X10:AC10 CV10:DC12 CF13:CM14 CB5:CM5 CV6:DC6 BX4:CM4 CF6:CM6">
-    <cfRule type="expression" dxfId="192" priority="88">
+    <cfRule type="expression" dxfId="184" priority="88">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BS22">
-    <cfRule type="expression" dxfId="191" priority="232">
+    <cfRule type="expression" dxfId="183" priority="232">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:W19">
-    <cfRule type="expression" dxfId="190" priority="212">
+    <cfRule type="expression" dxfId="182" priority="212">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:N20">
-    <cfRule type="expression" dxfId="189" priority="211">
+    <cfRule type="expression" dxfId="181" priority="211">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:W20">
-    <cfRule type="expression" dxfId="188" priority="210">
+    <cfRule type="expression" dxfId="180" priority="210">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:N21">
-    <cfRule type="expression" dxfId="187" priority="209">
+    <cfRule type="expression" dxfId="179" priority="209">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:W21">
-    <cfRule type="expression" dxfId="186" priority="208">
+    <cfRule type="expression" dxfId="178" priority="208">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:N22">
-    <cfRule type="expression" dxfId="185" priority="207">
+    <cfRule type="expression" dxfId="177" priority="207">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:W22">
-    <cfRule type="expression" dxfId="184" priority="206">
+    <cfRule type="expression" dxfId="176" priority="206">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19:AC19">
-    <cfRule type="expression" dxfId="183" priority="224">
+    <cfRule type="expression" dxfId="175" priority="224">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AF19">
-    <cfRule type="expression" dxfId="182" priority="223">
+    <cfRule type="expression" dxfId="174" priority="223">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI19:BS19">
-    <cfRule type="expression" dxfId="181" priority="222">
+    <cfRule type="expression" dxfId="173" priority="222">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6:CA6">
-    <cfRule type="expression" dxfId="180" priority="182">
+    <cfRule type="expression" dxfId="172" priority="182">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:N19">
-    <cfRule type="expression" dxfId="179" priority="213">
+    <cfRule type="expression" dxfId="171" priority="213">
       <formula>$CJ19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX9:CA9">
-    <cfRule type="expression" dxfId="178" priority="199">
+    <cfRule type="expression" dxfId="170" priority="199">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX26:CA27">
-    <cfRule type="expression" dxfId="177" priority="194">
+    <cfRule type="expression" dxfId="169" priority="194">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:N17">
-    <cfRule type="expression" dxfId="176" priority="215">
+    <cfRule type="expression" dxfId="168" priority="215">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:N23 AG23:BH23 AG24:AJ25 F29:BS37 X26:BS28">
-    <cfRule type="expression" dxfId="175" priority="205">
+    <cfRule type="expression" dxfId="167" priority="205">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:W23">
-    <cfRule type="expression" dxfId="174" priority="204">
+    <cfRule type="expression" dxfId="166" priority="204">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:N24">
-    <cfRule type="expression" dxfId="173" priority="203">
+    <cfRule type="expression" dxfId="165" priority="203">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:W24">
-    <cfRule type="expression" dxfId="172" priority="202">
+    <cfRule type="expression" dxfId="164" priority="202">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:N25">
-    <cfRule type="expression" dxfId="171" priority="201">
+    <cfRule type="expression" dxfId="163" priority="201">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:W25">
-    <cfRule type="expression" dxfId="170" priority="200">
+    <cfRule type="expression" dxfId="162" priority="200">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AF6">
-    <cfRule type="expression" dxfId="169" priority="185">
+    <cfRule type="expression" dxfId="161" priority="185">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:W6">
-    <cfRule type="expression" dxfId="168" priority="184">
+    <cfRule type="expression" dxfId="160" priority="184">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="167" priority="181">
+    <cfRule type="expression" dxfId="159" priority="181">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:W28">
-    <cfRule type="expression" dxfId="166" priority="195">
+    <cfRule type="expression" dxfId="158" priority="195">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:N28">
-    <cfRule type="expression" dxfId="165" priority="193">
+    <cfRule type="expression" dxfId="157" priority="193">
       <formula>$CJ29="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:CA5">
-    <cfRule type="expression" dxfId="164" priority="188">
+    <cfRule type="expression" dxfId="156" priority="188">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="163" priority="187">
+    <cfRule type="expression" dxfId="155" priority="187">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:BH6">
-    <cfRule type="expression" dxfId="162" priority="186">
+    <cfRule type="expression" dxfId="154" priority="186">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:BS5">
-    <cfRule type="expression" dxfId="161" priority="192">
+    <cfRule type="expression" dxfId="153" priority="192">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AF5">
-    <cfRule type="expression" dxfId="160" priority="191">
+    <cfRule type="expression" dxfId="152" priority="191">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E9">
-    <cfRule type="expression" dxfId="159" priority="178">
+    <cfRule type="expression" dxfId="151" priority="178">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB10:CM10">
-    <cfRule type="expression" dxfId="158" priority="167">
+    <cfRule type="expression" dxfId="150" priority="167">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:BS16">
-    <cfRule type="expression" dxfId="157" priority="168">
+    <cfRule type="expression" dxfId="149" priority="168">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:N16">
-    <cfRule type="expression" dxfId="156" priority="169">
+    <cfRule type="expression" dxfId="148" priority="169">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:W16">
-    <cfRule type="expression" dxfId="155" priority="170">
+    <cfRule type="expression" dxfId="147" priority="170">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10:AF10">
-    <cfRule type="expression" dxfId="154" priority="159">
+    <cfRule type="expression" dxfId="146" priority="159">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:BS3 BX3:CM3">
-    <cfRule type="expression" dxfId="153" priority="247">
+    <cfRule type="expression" dxfId="145" priority="247">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AF3">
-    <cfRule type="expression" dxfId="152" priority="246">
+    <cfRule type="expression" dxfId="144" priority="246">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:W4">
-    <cfRule type="expression" dxfId="151" priority="245">
+    <cfRule type="expression" dxfId="143" priority="245">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN3:CU3">
-    <cfRule type="expression" dxfId="150" priority="244">
+    <cfRule type="expression" dxfId="142" priority="244">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI21:BS21">
-    <cfRule type="expression" dxfId="149" priority="235">
+    <cfRule type="expression" dxfId="141" priority="235">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG17:AJ17">
-    <cfRule type="expression" dxfId="148" priority="243">
+    <cfRule type="expression" dxfId="140" priority="243">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:AC22">
-    <cfRule type="expression" dxfId="147" priority="234">
+    <cfRule type="expression" dxfId="139" priority="234">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AF17">
-    <cfRule type="expression" dxfId="146" priority="242">
+    <cfRule type="expression" dxfId="138" priority="242">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17:AS17">
-    <cfRule type="expression" dxfId="145" priority="241">
+    <cfRule type="expression" dxfId="137" priority="241">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:AC21">
-    <cfRule type="expression" dxfId="144" priority="237">
+    <cfRule type="expression" dxfId="136" priority="237">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:AC20">
-    <cfRule type="expression" dxfId="143" priority="240">
+    <cfRule type="expression" dxfId="135" priority="240">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD20:AF20">
-    <cfRule type="expression" dxfId="142" priority="239">
+    <cfRule type="expression" dxfId="134" priority="239">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI20:BS20">
-    <cfRule type="expression" dxfId="141" priority="238">
+    <cfRule type="expression" dxfId="133" priority="238">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD21:AF21">
-    <cfRule type="expression" dxfId="140" priority="236">
+    <cfRule type="expression" dxfId="132" priority="236">
       <formula>$CJ21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AF22">
-    <cfRule type="expression" dxfId="139" priority="233">
+    <cfRule type="expression" dxfId="131" priority="233">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:AC23">
-    <cfRule type="expression" dxfId="138" priority="231">
+    <cfRule type="expression" dxfId="130" priority="231">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AF23">
-    <cfRule type="expression" dxfId="137" priority="230">
+    <cfRule type="expression" dxfId="129" priority="230">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI23:BS23">
-    <cfRule type="expression" dxfId="136" priority="229">
+    <cfRule type="expression" dxfId="128" priority="229">
       <formula>$CJ24="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:BH24">
-    <cfRule type="expression" dxfId="135" priority="228">
+    <cfRule type="expression" dxfId="127" priority="228">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI24:BS24">
-    <cfRule type="expression" dxfId="134" priority="227">
+    <cfRule type="expression" dxfId="126" priority="227">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT25:BH25">
-    <cfRule type="expression" dxfId="133" priority="226">
+    <cfRule type="expression" dxfId="125" priority="226">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25:BS25">
-    <cfRule type="expression" dxfId="132" priority="225">
+    <cfRule type="expression" dxfId="124" priority="225">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:W17">
-    <cfRule type="expression" dxfId="131" priority="214">
+    <cfRule type="expression" dxfId="123" priority="214">
       <formula>$CJ17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:AC24">
-    <cfRule type="expression" dxfId="130" priority="221">
+    <cfRule type="expression" dxfId="122" priority="221">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AF24">
-    <cfRule type="expression" dxfId="129" priority="220">
+    <cfRule type="expression" dxfId="121" priority="220">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:AC25">
-    <cfRule type="expression" dxfId="128" priority="219">
+    <cfRule type="expression" dxfId="120" priority="219">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25:AF25">
-    <cfRule type="expression" dxfId="127" priority="218">
+    <cfRule type="expression" dxfId="119" priority="218">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24:AS24">
-    <cfRule type="expression" dxfId="126" priority="217">
+    <cfRule type="expression" dxfId="118" priority="217">
       <formula>$CJ25="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AS25">
-    <cfRule type="expression" dxfId="125" priority="216">
+    <cfRule type="expression" dxfId="117" priority="216">
       <formula>$CJ26="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="expression" dxfId="124" priority="180">
+    <cfRule type="expression" dxfId="116" priority="180">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:W9">
-    <cfRule type="expression" dxfId="123" priority="174">
+    <cfRule type="expression" dxfId="115" priority="174">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="122" priority="177">
+    <cfRule type="expression" dxfId="114" priority="177">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:N26">
-    <cfRule type="expression" dxfId="121" priority="198">
+    <cfRule type="expression" dxfId="113" priority="198">
       <formula>$CJ27="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:W26">
-    <cfRule type="expression" dxfId="120" priority="197">
+    <cfRule type="expression" dxfId="112" priority="197">
       <formula>$CJ27="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:N27">
-    <cfRule type="expression" dxfId="119" priority="196">
+    <cfRule type="expression" dxfId="111" priority="196">
       <formula>$CJ28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF11:CM11">
-    <cfRule type="expression" dxfId="118" priority="158">
+    <cfRule type="expression" dxfId="110" priority="158">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:E6">
-    <cfRule type="expression" dxfId="117" priority="179">
+    <cfRule type="expression" dxfId="109" priority="179">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:N10">
-    <cfRule type="expression" dxfId="116" priority="161">
+    <cfRule type="expression" dxfId="108" priority="161">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:BS10">
-    <cfRule type="expression" dxfId="115" priority="160">
+    <cfRule type="expression" dxfId="107" priority="160">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN15:CU15">
-    <cfRule type="expression" dxfId="114" priority="117">
+    <cfRule type="expression" dxfId="106" priority="117">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:W10">
-    <cfRule type="expression" dxfId="113" priority="162">
+    <cfRule type="expression" dxfId="105" priority="162">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:AC11">
-    <cfRule type="expression" dxfId="112" priority="151">
+    <cfRule type="expression" dxfId="104" priority="151">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI11:BS11">
-    <cfRule type="expression" dxfId="111" priority="149">
+    <cfRule type="expression" dxfId="103" priority="149">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV15:DC15">
-    <cfRule type="expression" dxfId="110" priority="118">
+    <cfRule type="expression" dxfId="102" priority="118">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AF11">
-    <cfRule type="expression" dxfId="109" priority="150">
+    <cfRule type="expression" dxfId="101" priority="150">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="108" priority="115">
+    <cfRule type="expression" dxfId="100" priority="115">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX15:CA15">
-    <cfRule type="expression" dxfId="107" priority="116">
+    <cfRule type="expression" dxfId="99" priority="116">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:N15">
-    <cfRule type="expression" dxfId="106" priority="112">
+    <cfRule type="expression" dxfId="98" priority="112">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF12:CM12">
-    <cfRule type="expression" dxfId="105" priority="148">
+    <cfRule type="expression" dxfId="97" priority="148">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:E15">
-    <cfRule type="expression" dxfId="104" priority="114">
+    <cfRule type="expression" dxfId="96" priority="114">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV14:DC14">
-    <cfRule type="expression" dxfId="103" priority="138">
+    <cfRule type="expression" dxfId="95" priority="138">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:AJ18">
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="94" priority="103">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD18:AF18">
-    <cfRule type="expression" dxfId="101" priority="102">
+    <cfRule type="expression" dxfId="93" priority="102">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:W13">
-    <cfRule type="expression" dxfId="100" priority="126">
+    <cfRule type="expression" dxfId="92" priority="126">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV13:DC13">
-    <cfRule type="expression" dxfId="99" priority="131">
+    <cfRule type="expression" dxfId="91" priority="131">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AS18">
-    <cfRule type="expression" dxfId="98" priority="101">
+    <cfRule type="expression" dxfId="90" priority="101">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:W15">
-    <cfRule type="expression" dxfId="97" priority="113">
+    <cfRule type="expression" dxfId="89" priority="113">
       <formula>$CJ15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15:AJ15">
-    <cfRule type="expression" dxfId="96" priority="111">
+    <cfRule type="expression" dxfId="88" priority="111">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:BH15">
-    <cfRule type="expression" dxfId="95" priority="110">
+    <cfRule type="expression" dxfId="87" priority="110">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI15:BS15">
-    <cfRule type="expression" dxfId="94" priority="109">
+    <cfRule type="expression" dxfId="86" priority="109">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:AC15">
-    <cfRule type="expression" dxfId="93" priority="108">
+    <cfRule type="expression" dxfId="85" priority="108">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15:AF15">
-    <cfRule type="expression" dxfId="92" priority="107">
+    <cfRule type="expression" dxfId="84" priority="107">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15:AS15">
-    <cfRule type="expression" dxfId="91" priority="106">
+    <cfRule type="expression" dxfId="83" priority="106">
       <formula>$CJ16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:W18">
-    <cfRule type="expression" dxfId="90" priority="105">
+    <cfRule type="expression" dxfId="82" priority="105">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:N18">
-    <cfRule type="expression" dxfId="89" priority="104">
+    <cfRule type="expression" dxfId="81" priority="104">
       <formula>$CJ18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AS4">
-    <cfRule type="expression" dxfId="88" priority="98">
+    <cfRule type="expression" dxfId="80" priority="98">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4:BS4">
-    <cfRule type="expression" dxfId="87" priority="97">
+    <cfRule type="expression" dxfId="79" priority="97">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:W5">
-    <cfRule type="expression" dxfId="86" priority="95">
+    <cfRule type="expression" dxfId="78" priority="95">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:N5">
-    <cfRule type="expression" dxfId="85" priority="94">
+    <cfRule type="expression" dxfId="77" priority="94">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:N6">
-    <cfRule type="expression" dxfId="84" priority="93">
+    <cfRule type="expression" dxfId="76" priority="93">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI6:BS6">
-    <cfRule type="expression" dxfId="83" priority="92">
+    <cfRule type="expression" dxfId="75" priority="92">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT10:BW19">
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT20:BW21">
-    <cfRule type="expression" dxfId="81" priority="85">
+    <cfRule type="expression" dxfId="73" priority="85">
       <formula>$CJ20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT23:BW32 BT3:BW4">
-    <cfRule type="expression" dxfId="80" priority="87">
+    <cfRule type="expression" dxfId="72" priority="87">
       <formula>$CJ3="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:BH7">
-    <cfRule type="expression" dxfId="79" priority="75">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AF7">
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="70" priority="74">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT22:BW22">
-    <cfRule type="expression" dxfId="77" priority="82">
+    <cfRule type="expression" dxfId="69" priority="82">
       <formula>$CJ22="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AJ4 X4:AC4">
-    <cfRule type="expression" dxfId="76" priority="81">
+    <cfRule type="expression" dxfId="68" priority="81">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AF4">
-    <cfRule type="expression" dxfId="75" priority="80">
+    <cfRule type="expression" dxfId="67" priority="80">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9:AC9">
-    <cfRule type="expression" dxfId="74" priority="77">
+    <cfRule type="expression" dxfId="66" priority="77">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AF9">
-    <cfRule type="expression" dxfId="73" priority="78">
+    <cfRule type="expression" dxfId="65" priority="78">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AJ9">
-    <cfRule type="expression" dxfId="72" priority="79">
+    <cfRule type="expression" dxfId="64" priority="79">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AS9">
-    <cfRule type="expression" dxfId="71" priority="76">
+    <cfRule type="expression" dxfId="63" priority="76">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ7:CM7 X7:AC7">
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:CA7">
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="61" priority="71">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:W7">
-    <cfRule type="expression" dxfId="68" priority="73">
+    <cfRule type="expression" dxfId="60" priority="73">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="67" priority="70">
+    <cfRule type="expression" dxfId="59" priority="70">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
-    <cfRule type="expression" dxfId="66" priority="69">
+    <cfRule type="expression" dxfId="58" priority="69">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:N7">
-    <cfRule type="expression" dxfId="65" priority="68">
+    <cfRule type="expression" dxfId="57" priority="68">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BS7">
-    <cfRule type="expression" dxfId="64" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8:CA8">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8 AT8:BH8 CV8:DC8">
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:E8">
-    <cfRule type="expression" dxfId="61" priority="63">
+    <cfRule type="expression" dxfId="53" priority="63">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:W8">
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:N8">
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AJ8">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="50" priority="58">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:AC8">
-    <cfRule type="expression" dxfId="57" priority="56">
+    <cfRule type="expression" dxfId="49" priority="56">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AF8">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:N11">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="52" priority="51">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:E10">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:W11">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="44" priority="50">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E11">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BW9">
-    <cfRule type="expression" dxfId="47" priority="14">
+    <cfRule type="expression" dxfId="41" priority="14">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:BH12">
-    <cfRule type="expression" dxfId="46" priority="43">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:AC12">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="39" priority="46">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12:BS12">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="38" priority="44">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AF12">
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:W12">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:N12">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E12">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="33" priority="40">
       <formula>$CJ12="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:N13">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="32" priority="38">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AJ13">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:AC13">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13:AF13">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="27" priority="34">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AS13">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>$CJ13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:BH14">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:W14">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="24" priority="31">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E14">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN4:CU4">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$CJ4="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI14:BS14">
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX10:CA14">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$CJ10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK14:AS14">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AJ14">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:AC14">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AF14">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$CJ14="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN5:CU14">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB6:CE8">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$CJ6="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB11:CE14">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$CJ11="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF7:CI7">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:N9">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI9:BS9">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ9:CM9">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB9:CE9">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF9:CI9">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$CJ9="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV9:DC9 CV7:DC7">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$CJ7="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:DC5">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$CJ5="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AS8">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BS8">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF8:CM8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$CJ8="NG"</formula>
     </cfRule>
   </conditionalFormatting>
